--- a/movie.xlsx
+++ b/movie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,15 @@
           <t>简介</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>关键词</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1292052</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1292052</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -511,15 +514,11 @@
           <t>The Shawshank Redemption</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.699999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -555,6 +554,11 @@
         <is>
           <t>一场谋杀案使银行家安迪（蒂姆•罗宾斯TimRobbins饰）蒙冤入狱，谋杀妻子及其情人的指控将囚禁他终生。在肖申克监狱的首次现身就让监狱“大哥”瑞德（摩根•弗里曼MorganFreeman饰）对他另眼相看。瑞德帮助他搞到一把石锤和一幅女明星海报，两人渐成患难之交。很快，安迪在监狱里大显其才，担当监狱图书管理员，并利用自己的金融知识帮助监狱官避税，引起了典狱长的注意，被招致麾下帮助典狱长洗黑钱。偶然一次，他得知一名新入狱的小偷能够作证帮他洗脱谋杀罪。燃起一丝希望的安迪找到了典狱长，希望他能帮自己翻案。阴险伪善的狱长假装答应安迪，背后却派人杀死小偷，让他唯一能合法出狱的希望泯灭。沮丧的安迪并没有绝望，在一个电闪雷鸣的风雨夜，一场暗藏几十年的越狱计划让他自我救赎，重获自由！老朋友瑞德在他的鼓舞和帮助下，也勇敢地奔向自由。
 本片获得1995年奥斯卡10项提名，以及金球奖、土星奖等多项提名。</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>['谋杀案', '银行家', '安迪', '蒂姆', '罗宾斯', '蒙冤', '下狱', '他杀', '夫妻', '恋人', '指控', '囚禁', '一生', '肖申克', '监牢', '初度', '现身', '就让', '大哥', '瑞德', '摩根', '弗里', '厚此薄彼', '匡助', '一把', '石锤', '一幅', '女明星', '海报', '两人', '渐成', '布衣之交', '很快', '大显', '其才', '承担', '图书', '管理员', '使用', '金融', '常识', '避税', '导致', '典狱长', '属意', '麾下', '黑钱', '偶尔', '一次', '得悉', '一名', '小偷', '可能', '作证', '洗脱', '谋杀罪', '燃起', '一丝', '但愿', '找到', '昭雪', '狡猾', '伪善', '狱长', '伪装', '甘愿', '反面', '杀死', '唯一', '合法', '出狱', '泯灭', '失落', '没有', '扫兴', '电闪雷鸣', '风雨', '暗藏', '几十年', '越狱', '安排', '自我', '救赎', '重获', '自在', '老朋友', '煽惑', '勇敢', '地奔', '本片', '获取', '奥斯卡', '提名', '金球奖', '土星', '多项']</t>
         </is>
       </c>
     </row>
@@ -572,15 +576,11 @@
           <t>Léon</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -616,6 +616,11 @@
         <is>
           <t>里昂（让·雷诺饰）是名孤独的职业杀手，受人雇佣。一天，邻居家小姑娘马蒂尔达（纳塔丽·波特曼饰)敲开他的房门，要求在他那里暂避杀身之祸。原来邻居家的主人是警方缉毒组的眼线，只因贪污了一小包毒品而遭恶警（加里·奥德曼饰）杀害全家的惩罚。马蒂尔达得到里昂的留救，幸免于难，并留在里昂那里。里昂教小女孩使枪，她教里昂法文，两人关系日趋亲密，相处融洽。
 女孩想着去报仇，反倒被抓，里昂及时赶到，将女孩救回。混杂着哀怨情仇的正邪之战渐次升级，更大的冲突在所难免……</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>['里昂', '雷诺', '孤傲', '职业杀手', '受人', '雇佣', '邻居家', '小姑娘', '蒂尔', '纳塔丽', '波特曼', '敲开', '房门', '哀求', '暂避', '杀身之祸', '从来', '主人', '警方', '缉毒', '眼线', '腐败', '一小包', '毒品', '遭恶警', '加里', '奥德曼', '摧残', '全家', '刑事责任', '取得', '留救', '幸免于难', '留在', '小女孩', '使枪', '法文', '两人', '关系', '日趋', '亲切', '相处', '敦睦', '女孩', '想着', '忘恩', '反倒', '及时', '赶到', '救回', '混杂着', '哀怨', '情仇', '正邪', '之战', '渐次', '升级', '更大', '冲破', '在劫难逃']</t>
         </is>
       </c>
     </row>
@@ -633,15 +638,11 @@
           <t>Forrest Gump</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -681,6 +682,11 @@
 有一天，阿甘收到珍妮的信，他们终于又要见面……</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['阿甘', '汤姆', '汉克斯', '二战', '完结', '不久', '出世', '美国', '南方', '阿拉巴马州', '凝滞', '小镇', '先天', '弱智', '智力', '妈妈', '性情', '刚劲', '女性', '一再', '鼓动', '傻人', '傻福', '发奋图强', '阿甘像', '广泛', '儿童', '上学', '理解', '一世', '同伴', '至爱', '珍妮', '罗宾', '莱特', '潘饰', '保养', '凭着', '上帝', '给予', '飞毛腿', '一直', '奔走', '成为', '橄榄球', '巨星', '越战', '俊杰', '乒乓球', '交际', '使者', '亿万富翁', '始终', '忘不了', '仓猝', '汇集', '分裂', '更是', '加深', '怀想', '收到', '到底', '会面']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -696,15 +702,11 @@
           <t>Inception</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -739,6 +741,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>道姆·柯布（莱昂纳多·迪卡普里奥LeonardoDiCaprio饰）与同事阿瑟（约瑟夫·戈登-莱维特JosephGordon-Levitt饰）和纳什（卢卡斯·哈斯LukasHaas饰）在一次针对日本能源大亨齐藤（渡边谦饰）的盗梦行动中失败，反被齐藤利用。齐藤威逼利诱因遭通缉而流亡海外的柯布帮他拆分他竞争对手的公司，采取极端措施在其唯一继承人罗伯特·费希尔（希里安·墨菲CillianMurphy饰）的深层潜意识中种下放弃家族公司、自立门户的想法。为了重返美国，柯布偷偷求助于岳父迈尔斯（迈克尔·凯恩MichaelCaine饰），吸收了年轻的梦境设计师艾里阿德妮（艾伦·佩吉EllenPage饰）、梦境演员艾姆斯（汤姆·哈迪TomHardy饰）和药剂师约瑟夫（迪利普·劳DileepRao饰）加入行动。在一层层递进的梦境中，柯布不仅要对付费希尔潜意识的本能反抗，还必须直面已逝妻子梅尔（玛丽昂·歌迪亚MarionCotillard饰）的处处破坏，实际情况远比预想危险得多……</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['道姆', '柯布', '莱昂纳多', '迪卡', '普里', '共事', '阿瑟', '约瑟夫', '戈登', '莱维', '纳什', '卢卡斯', '哈斯', '一次', '针对', '日本', '动力', '大亨', '齐藤', '渡边', '谦饰', '行为', '凋落', '使用', '威迫利诱', '因遭', '通缉', '流亡海外', '拆分', '竞争对手', '公司', '选拔', '极度', '办法', '唯一', '继承人', '罗伯特', '费希尔', '里安', '墨菲', '深层', '潜意识', '中种', '吐弃', '家属', '各行其是', '年头', '重返', '美国', '偷偷', '求助于', '岳丈', '迈尔斯', '迈克尔', '凯恩', '吸取', '年轻', '梦乡', '设计师', '艾里', '阿德', '艾伦', '佩吉', '伶人', '艾姆斯', '汤姆', '哈迪', '药剂师', '迪利普', '出席', '一层层', '递进', '凑合', '性能', '不屈', '必得', '直面', '已逝', '夫妻', '梅尔', '玛丽', '歌迪亚', '在在', '捣乱', '实质', '境况', '远比', '料想', '危殆']</t>
         </is>
       </c>
     </row>
@@ -752,15 +759,11 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -796,6 +799,11 @@
         <is>
           <t>民国年间，花钱捐得县长的马邦德（葛优饰）携妻（刘嘉玲饰）及随从走马上任。途经南国某地，遭劫匪张麻子（姜文饰）一伙伏击，随从尽死，只夫妻二人侥幸活命。马为保命，谎称自己是县长的汤师爷。为汤师爷许下的财富所动，张麻子摇身一变化身县长，带着手下赶赴鹅城上任。有道是天高皇帝远，鹅城地处偏僻，一方霸主黄四郎（周润发饰）只手遮天，全然不将这个新来的县长放在眼里。张麻子痛打了黄的武教头（姜武饰），黄则设计害死张的义子小六（张默饰）。原本只想赚钱的马邦德，怎么也想不到竟会被卷入这场土匪和恶霸的角力之中。鹅城上空愁云密布，血雨腥风在所难免……
 本片根据马识途的小说《夜谭十记》中的《盗官记》一章改编。</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['民国', '年间', '用钱', '捐得', '县令', '邦德', '葛优', '携妻', '刘嘉玲', '跟班', '下车伊始', '路过', '南国', '某地', '劫匪', '麻子', '掩瞒', '一伙', '伏击', '尽死', '夫妇', '二人', '侥幸', '活命', '马为', '保命', '谎称', '师爷', '许下', '家当', '变幻无常', '化身', '属下', '前往', '鹅城', '上任', '有道是', '天高皇帝远', '地处', '偏僻', '一方', '霸主', '黄四郎', '周润发', '只手遮天', '全然', '新来', '放在眼里', '痛打', '教头', '姜武饰', '黄则', '设想', '害死', '义子', '小六', '张默饰', '其实', '只想', '获利', '想不到', '竟会', '卷入', '这场', '匪贼', '恶霸', '角力', '之中', '上空', '愁云', '密布', '血流漂杵', '在劫难逃', '本片', '马识途', '小说', '夜谭', '十记', '盗官记', '一章', '改编']</t>
         </is>
       </c>
     </row>
@@ -813,15 +821,11 @@
           <t>Le fabuleux destin d'Amélie Poulain</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -857,6 +861,11 @@
         <is>
           <t>艾米莉（奥黛丽·塔图AudreyTautou饰）有着别人看来不幸的童年——父亲给她做健康检查时，发现她心跳过快，便断定她患上心脏病，从此艾米莉与学校绝缘。随后因为一桩意外，母亲在她眼前突然死去。这一切都毫不影响艾米莉对生活的豁达乐观。
 1997年，戴安娜王妃的去世让她倍感人生的孤独脆弱，艾米莉从此开始了一系列助人计划，包括自闭忧郁的邻居老人，被老板刻薄的菜摊伙计、遗失了童年器物的旧房东、爱情失意的咖啡店同事。但她万万想不到，成人录象带商店店员尼诺（马修·卡索维MathieuKassovitz饰），竟成为她的棘手对象，艾米莉开始了令人哭笑不得的另类计划……</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['艾米莉', '奥黛丽', '塔图', '有着', '他人', '看来', '不幸', '童年', '父亲', '健康检查', '发掘', '心跳', '过快', '信任', '患上', '心脏病', '今后', '学宫', '绝缘', '随后', '一桩', '不测', '母亲', '刻下', '倏地', '故去', '毫不', '作用', '生存', '宽大', '乐天', '戴安娜', '王妃', '丧生', '倍感', '人生', '孤傲', '懦弱', '一系列', '助人', '安排', '包孕', '自闭', '忧虑', '邻人', '白叟', '店主', '冷酷', '菜摊', '伙计', '失去', '器物', '房东', '恋爱', '失意', '咖啡店', '共事', '一概', '想不到', '成人', '录象带', '商号', '尼诺', '马修', '卡索维', '成为', '棘手', '器材', '令人', '不尴不尬', '另类']</t>
         </is>
       </c>
     </row>
@@ -874,15 +883,11 @@
           <t>Avatar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -919,6 +924,11 @@
         <is>
           <t>战斗中负伤而下身瘫痪的前海军战士杰克·萨利（萨姆·沃辛顿SamWorthington饰）决定替死去的同胞哥哥来到潘多拉星操纵格蕾丝博士（西格妮·韦弗SigourneyWeaver饰）用人类基因与当地纳美部族基因结合创造出的“阿凡达”混血生物。杰克的目的是打入纳美部落，外交说服他们自愿离开世代居住的家园，从而SecFor公司可砍伐殆尽该地区的原始森林，开采地下昂贵的“不可得”矿。在探索潘多拉星的过程中，杰克遇到了纳美部落的公主娜蒂瑞（佐伊·索尔达娜ZoeSaldana饰），向她学习了纳美人的生存技能与对待自然的态度。与此同时，SecFor公司的经理和军方代表上校迈尔斯（史蒂芬·朗StephenLang饰）逐渐丧失耐心，决定诉诸武力驱赶纳美人……
 本片采用3D技术拍摄，共耗资5亿美元制作发行，是电影史上最为昂贵的作品。本片荣获第82届奥斯卡最佳摄影、最佳视觉效果、最佳艺术指导等3项大奖。</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['战争', '挂花', '下身', '瘫痪', '水兵', '士兵', '杰克', '萨利', '萨姆', '沃辛顿', '决定', '故去', '同族', '哥哥', '到达', '潘多拉', '专揽', '格蕾丝', '博士', '西格', '韦弗', '人类基因', '外地', '纳美', '部族', '基因', '勾结', '创设', '阿凡', '混血', '生物', '目标', '打入', '部落', '交际', '压服', '自动', '摆脱', '世代', '居住', '乡里', '公司', '砍伐', '殆尽', '区域', '原始森林', '开发', '地下', '不菲', '不可', '探求', '经过', '碰到', '公主', '娜蒂瑞', '佐伊', '索尔达', '学习', '纳美人', '存在', '功夫', '对付', '天然', '作风', '司理', '军方', '代表', '上校', '迈尔斯', '史蒂芬', '逐步', '丢失', '沉着', '诉诸武力', '打发', '本片', '选取', '拍摄', '耗资', '亿美元', '创造', '刊行', '电影史', '最为', '作品', '荣获', '奥斯卡', '最佳', '拍照', '视觉效果', '艺术', '向导', '大奖']</t>
         </is>
       </c>
     </row>
@@ -936,15 +946,11 @@
           <t>La leggenda del pianista sull'oceano</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
+      <c r="D9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -983,6 +989,11 @@
 可惜，这一切的事情都发生在海上，1900从来不愿踏上陆地，直到有一天，他爱上了一个女孩，情愫在琴键上流淌。他会不会为了爱情，踏上陆地开始新的生活，用他的琴声惊艳世界？他将怎样谱写自己非凡的人生。</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['本片', '报告', '钢琴', '先天', '传奇', '一世', '奢华', '邮轮', '孤儿', '被遗弃', '头等舱', '船上', '梢公', '供养', '长大', '取名', '蒂姆', '罗斯', '徐徐', '呈现', '无师自通', '出众', '乐队', '献技', '每个', '听过', '弹奏', '深深', '感动', '爵士乐', '始祖', '杰尼', '传说', '高明', '技能', '专门', '上船', '比赛', '临了', '自叹弗如', '沮丧', '告辞', '可惜', '事务', '产生', '海上', '从来不', '踏上', '大陆', '直到', '女孩', '情感', '琴键', '流淌', '他会', '不会', '恋爱', '生存', '琴声', '惊艳', '世界', '谱写', '人生']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -998,15 +1009,11 @@
           <t>Titanic</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1045,6 +1052,11 @@
 1912年4月14日，星期天晚上，一个风平浪静的夜晚。泰坦尼克号撞上了冰山，“永不沉没的”泰坦尼克号面临沉船的命运，罗丝和杰克刚萌芽的爱情也将经历生死的考验。</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['号称', '世界', '产业', '史上', '事迹', '奢华', '客轮', '泰坦尼克号', '处女航', '英国', '南安普顿', '出发', '驶往', '美国纽约', '大族', '仙女', '罗丝', '凯特', '温丝', '莱特', '母亲', '未婚夫', '卡尔', '坐上', '头等舱', '另一边', '吊儿郎当', '少年', '画家', '杰克', '莱昂纳多', '迪卡', '普里', '码头', '打赌', '获', '船票', '厌倦', '上流社会', '卖弄', '生存', '不愿', '嫁给', '希图', '投海', '寻短见', '救起', '很快', '倩丽', '天真', '美丽', '宽阔', '相爱', '带罗丝', '加入', '舞会', '画像', '二人', '情愫', '逐步', '升温', '星期天', '夜晚', '水静无波', '冰山', '永不', '埋没', '濒临', '沉船', '命运', '发芽', '恋爱', '履历', '存亡', '磨练']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1060,15 +1072,11 @@
           <t>千と千尋の神隠し</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1110,6 +1118,11 @@
 为了救小白，千寻又踏上了她的冒险之旅。</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['千寻', '爸爸妈妈', '一同', '驱车', '前去', '原野', '路上', '不慎', '加入', '机密', '地道', '诡异', '世界', '中世纪', '小镇', '远处', '食品', '香味', '大吃大喝', '孰料', '之后', '变成', '慢慢', '情形', '乖僻', '半透明', '仓猝', '逃出', '叫小白', '停止', '形骸', '泯灭', '叮嘱', '汽锅', '爷爷', '婆婆', '必得', '获取', '一份', '事业', '才力', '邪法', '东西', '小白', '匡助', '幸运地', '浴室', '打杂', '不再', '奇形怪状', '吓倒', '从小', '明晰', '凶恶', '学生', '一次', '发掘', '一群', '白色', '飞翔', '纸人', '打伤', '受伤', '河伯', '送给', '药丸', '驱出', '封印', '小妖精', '但小白', '没有', '醒过来', '救小白', '踏上', '冒险', '之旅']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1121,15 +1134,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.6</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1165,6 +1174,11 @@
         <is>
           <t>段小楼（张丰毅）与程蝶衣（张国荣）是一对打小一起长大的师兄弟，两人一个演生，一个饰旦，一向配合天衣无缝，尤其一出《霸王别姬》，更是誉满京城，为此，两人约定合演一辈子《霸王别姬》。但两人对戏剧与人生关系的理解有本质不同，段小楼深知戏非人生，程蝶衣则是人戏不分。
 段小楼在认为该成家立业之时迎娶了名妓菊仙（巩俐），致使程蝶衣认定菊仙是可耻的第三者，使段小楼做了叛徒，自此，三人围绕一出《霸王别姬》生出的爱恨情仇战开始随着时代风云的变迁不断升级，终酿成悲剧。</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['段小楼', '张丰毅', '程蝶衣', '张国荣', '一双', '打小', '一块', '长大', '师兄弟', '两人', '演生', '饰旦', '一向', '协作', '十全十美', '加倍', '一出', '霸王别姬', '更是', '誉满', '京城', '为此', '商定', '合演', '一辈子', '戏剧', '人生', '关系', '了解', '实质', '不同', '深知', '戏非', '人戏', '不分', '觉得', '安家落户', '迎娶', '名妓', '菊仙', '巩俐', '导致', '断定', '可耻', '局外人', '叛徒', '以后', '三人', '围绕', '生出', '爱恨', '情仇', '年代', '风云', '变迁', '不息', '升级', '形成', '悲催']</t>
         </is>
       </c>
     </row>
@@ -1182,15 +1196,11 @@
           <t>Edward Scissorhands</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1226,6 +1236,11 @@
         <is>
           <t>爱德华（约翰尼•戴普饰）是一个机器人，他拥有人的心智，却有一双剪刀手，孤独地生活在古堡里，闯入古堡的化妆品推销员佩格把他带回家，让他走进了人类的世界。单纯的爱德华爱上了佩格的女儿金（薇诺娜•瑞德饰），金也慢慢的被爱德华的善良所吸引。
 但是，一连串的意外事情让周围的人邻居对爱德华的态度从喜欢变成无法接受，爱德华痛苦地发现，他总是好心办坏事，连自己的爱人都不能拥抱，或许，他注定就不属于这个世界。</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['爱德华', '约翰尼', '戴普饰', '机器人', '占有', '心智', '一双', '剪刀手', '孤傲', '生存', '古堡', '闯入', '化妆品', '推销员', '佩格', '带回家', '走进', '人类', '世界', '单一', '爱上', '儿子', '薇诺娜', '瑞德', '徐徐', '和善', '吸引', '一连串', '不测', '事务', '周围', '邻人', '作风', '喜好', '变成', '无法', '担当', '疼痛', '发掘', '总是', '善心', '坏事', '情人', '不能', '拥抱', '也许', '一定', '属于']</t>
         </is>
       </c>
     </row>
@@ -1243,15 +1258,11 @@
           <t>WALL·E</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1291,6 +1302,11 @@
 本片荣获2009年第81届奥斯卡最佳动画长片奖。</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['公元', '人类文明', '高度', '兴盛', '搅浑', '生存', '垃圾', '大批', '填补', '地球', '不再', '适于', '人类', '居住', '被动', '乘坐', '飞船', '摆脱', '乡里', '举行', '一次', '悠久', '广阔', '全国', '之旅', '临行', '嘱托', '公司', '整理', '启迪', '名为', '副品', '分装', '机器人', '承担', '重任', '次第', '年复一年', '三年五载', '辛勤工作', '年华', '流逝', '低劣', '处境', '侵略', '持续', '损坏', '停息', '活动', '临了', '这项', '仿佛', '无止无休', '事业', '履历', '光阴', '占有', '意志', '喜好', '搜求', '宝物', '一丝不苟', '藏起', '停工', '望望', '几百年', '歌舞片', '一只', '蟑螂', '同伴', '作伴', '直到', '一艘', '来自', '打垮', '一定不易', '本片', '荣获', '奥斯卡', '最佳', '动画', '长片']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1302,15 +1318,11 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1346,6 +1358,11 @@
         <is>
           <t>海归秦奋（葛优饰）的天才发明“分歧终端机”因能公平和平地解决人类分歧，被风投者以200万英镑高价买走。秦奋也开始踏上网上征婚的路途，一路笑话不断，不是重遇Gay友，就是遇到推销客，秦奋颇有点心灰意冷，以致遇到清冷女子梁笑笑（舒淇饰）时便开门见山请求对方说明来意。这次更为棘手，笑笑爱上有妇之夫，陷于苦恋中不停挣扎，这次纯属听从家里人安排才出来与秦奋见上一面。不再打算再见的二人尽情地分享了生命中最隐秘的秘密。
 然而不久，打算和旧爱分手的笑笑找到秦奋，说要嫁给他,但想与他先去北海道一趟。因她与旧爱的爱情是在那里开始的，如今想在那里结束。秦奋答应了。二人踏上北海道之旅，秦奋在北海道的老友对他们盛情招待，三人游遍北海道各处，秦奋知道自己得不到笑笑的心，却不知道笑笑心中抑郁难解的结正冲向海底的漩涡……</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>['海归', '秦奋', '葛优', '先天', '创造', '不同', '终端机', '因能', '公允', '冷静', '治理', '人类', '投者', '万英镑', '高价', '踏上', '网上', '征婚', '行程', '一同', '笑话', '不息', '不是', '重遇', '碰到', '倾销', '有点', '哀莫大于心死', '凉爽', '佳', '笑笑', '舒淇', '单刀直入', '申请', '对方', '注解', '来意', '此次', '更为', '棘手', '爱上', '有妇之夫', '陷于', '苦恋', '一直', '反抗', '流利', '听从', '家里人', '安排', '出来', '秦奋见', '一边', '不再', '希图', '再会', '二人', '尽兴', '共享', '人命', '隐敝', '机要', '不久', '仳离', '找到', '嫁给', '北海道', '一回', '恋爱', '今朝', '完结', '甘愿', '之旅', '好友', '好意', '召唤', '三人', '游遍', '到处', '明晰', '得不到', '心中', '愁闷', '难懂', '结正', '冲向', '海底', '旋涡']</t>
         </is>
       </c>
     </row>
@@ -1363,15 +1380,11 @@
           <t>Slumdog Millionaire</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1413,6 +1426,11 @@
 而现在，杰玛一方面要洗清自己的犯罪嫌疑，一方面要拯救与拉媞卡的爱。在金钱与爱之前，杰玛能够沉着冷静，选择出正确的答案吗？</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['印度', '孟买', '后生', '杰玛', '马利克', '戴夫', '帕特尔', '问题', '获', '万万', '卢比', '做到', '作弊', '侥幸', '先天', '修短有命', '这是', '成为', '百万富翁', '电视', '猜谜', '节目', '人生', '一经', '境况', '警方', '棍骗', '拘押', '严刑', '拷问', '下杰玛', '说出', '获取', '底细', '如实', '明晰', '答案', '入迷', '贫民窟', '年幼', '生存', '坚苦', '哥哥', '沙里', '仙女', '拉媞', '芙蕾达', '平托饰', '三人', '一块', '履历', '几十年', '变迁', '之前', '仿佛', '印象', '碎屑', '牵动', '亲情', '恋爱', '如今', '洗清', '犯科', '一伙', '急救', '与拉媞', '款项', '可能', '从容', '冷清', '选定', '准确']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1428,15 +1446,11 @@
           <t>Kung Fu Panda</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1477,6 +1491,11 @@
 故事讲述好食懒做的熊猫阿宝，一直醉心中国功夫，一次误打误撞竟然被认定为传说中的武林高手「龙战士」，奉命去对付刚逃狱的魔头大豹！一代宗师施福大师因而要面对人生最大的挑战──如何在迫切的时间内，将拥有一身豪华臀、麒麟臂、肚腩肉、不能看也不能打的大熊猫，训练成为名震江湖的功夫大师？</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>['首度', '人见人爱', '大熊猫', '中国', '光阴', '故事', '主线', '熊猫', '定于', '举世', '上映', '届时', '协作', '举世瞩目', '北京奥运', '加上', '技击', '列为', '奥运', '特设', '名目', '信任', '定必', '全世界', '掀翻', '势不可当', '热潮', '影戏', '希望', '打破纪录', '勇夺', '动画', '票房', '金牌', '梦工厂', '这部', '重头戏', '非常重视', '出动', '怪物', '史瑞克', '马达加斯加', '班底', '用心', '构思', '设想', '脚色', '研讨', '优秀', '电脑', '特技', '请来', '星光', '熠熠', '声演', '声威', '包孕', '搞笑', '巨星', '杰克', '布莱克', '阿宝', '金像', '影帝', '达斯汀', '霍夫曼', '施福', '大家', '成龙', '大哥', '灵猴', '性感', '安吉丽娜', '朱丽', '飞虎', '轰隆', '天使', '华侨', '红星', '刘玉玲', '毒蛇', '健壮', '卡士', '一律', '前所未见', '杰弗瑞', '卡森', '伯格', '早前', '更为', '将会', '劈头盖脸', '宣传攻势', '揭开序幕', '亲自', '一段', '分钟', '短片', '亮相', '介绍', '剧情', '特点', '香港电影', '公司', '格外', '安排', '放映', '业内人士', '商业伙伴', '率先', '抚玩', '片中', '仙鹤', '螳螂', '大豹', '一出场', '引发', '笑声', '观众', '反应', '异常', '强烈', '各人', '期待', '正式', '看到', '使出', '无敌', '楼梯', '面条', '护身', '肚腩', '凸击', '独门', '绝招', '报告', '好食', '宠爱', '一次', '歪打正着', '果然', '断定', '传奇', '武林高手', '龙战士', '受命', '凑合', '越狱', '魔头', '一代宗师', '面临', '人生', '最大', '寻事', '火急', '年华', '占有', '一身', '奢华', '麒麟', '不能', '演练', '成为', '名震', '江湖']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1492,15 +1511,11 @@
           <t>Up</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1540,6 +1555,11 @@
 本片荣获第82届奥斯卡最佳动画长片、最佳配乐2项大奖。</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['小男孩', '卡尔', '怀揣', '冒险', '亲爱', '偶遇', '假小子', '艾丽', '全盘', '屋子', '当成', '一艘', '飞船', '嬉戏', '公然', '女孩子', '入迷', '不异', '嗜好', '最后', '两个', '成为', '一世', '爱侣', '妄想', '有朝一日', '南美洲', '仙境', '瀑布', '探险', '直到', '丧生', '未能', '完毕', '到底', '也曾', '专卖', '气球', '白叟', '五彩缤纷', '飞上了', '天外', '决定', '未始', '出乎意料', '门廊', '搭上', '自称', '荒原', '开拓者', '小罗', '呶呶不休', '胖墩', '十分', '憎恶', '一老一少', '航行', '千难万险', '看到', '传奇', '相处', '经过', '发掘', '其实', '垂怜', '儿童', '步碾儿', '穿越', '丛林', '碰到', '不会', '大鸟', '凯文', '一只', '讲话', '狗狗', '逗逗', '好奇', '少年', '崇拜偶像', '探险家', '查尔斯', '蒙兹', '目标', '不择手段', '凶徒', '之地', '一步之遥', '本片', '荣获', '奥斯卡', '最佳', '动画', '配乐', '大奖']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1551,15 +1571,11 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1595,6 +1611,11 @@
         <is>
           <t>太阳活动异常，地球内部的能量平衡系统面临崩溃，玛雅人的预言即将实现，人类将遭遇灭顶之灾。各国政府已经联手开始秘密制造方舟，希望能躲过这一浩劫。以写科幻小说谋生的杰克逊（约翰·库萨克JohnCusack饰）在带孩子们到黄石公园渡周末时发生一连串怪事，而且遇到了神经兮兮的查理（伍迪·哈里森WoodyHarrelson饰)，查理告诉他世界末日即将来临。伴随着火山爆发，强烈地震以及海啸，杰克逊带领自己的家人驾驶一架临时租来的飞机冲出被死神阴霾瞬间笼罩的城市上空，开始寻找查理口中各国政府正在联合秘密制造的方舟。在生死攸关的时刻，一些伟大的鬼魂将脱颖而出，而一些自私的心灵将无所遁形，当千千万万个生灵通过各种方法来到方舟制造基地之时，方舟有限的容纳数量引发前所未有的恐慌。最终，仅存的人们用互爱和对生命的尊重渡过了难关。
 本片被称为《后天》的升级版，投资超过2亿美元，是灾难片大师罗兰·艾默里奇（RolandEmmerich）的最新力作。</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['太阳活动', '十分', '地球', '内部', '力量', '均衡', '体例', '濒临', '倒闭', '玛雅人', '预言', '即将', '完毕', '人类', '碰到', '弥天大祸', '列国', '政府', '一经', '联手', '机要', '创设', '方舟', '但愿', '躲过', '这一', '大难', '以写', '科幻小说', '营生', '杰克逊', '约翰', '库萨克', '儿童', '黄石公园', '周末', '产生', '一连串', '异事', '神经兮兮', '查理', '伍迪', '哈里森', '叮嘱', '世界末日', '即将来临', '伴同', '火山爆发', '刚烈', '地震', '海啸', '元首', '家人', '驾驶', '一架', '且自', '租来', '飞机', '冲出', '死神', '阴晦', '倏得', '弥漫', '城市', '上空', '寻找', '口中', '正在', '合伙', '生死存亡', '工夫', '伟大', '幽灵', '崭露头角', '利己', '心灵', '无所遁形', '千千万万个', '生灵', '办法', '到达', '基地', '有限', '包含', '数目', '引发', '亘古未有', '心焦', '最后', '仅存', '人们', '互爱', '人命', '尊敬', '度过', '难关', '本片', '称为', '后天', '升级版', '投资', '赶过', '亿美元', '灾难片', '大家', '罗兰', '艾默里', '最新', '力作']</t>
         </is>
       </c>
     </row>
@@ -1612,15 +1633,11 @@
           <t>Se7en</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1655,6 +1672,11 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>“暴食”、“贪婪”、“懒惰”、“嫉妒”、“骄傲”、“淫欲”、“愤怒”，这是天主教教义所指的人性七宗罪。城市中发生的连坏杀人案，死者恰好都是犯有这些教义的人。凶手故弄玄虚的作案手法，令资深冷静的警员沙摩塞（摩根•弗里曼MorganFreeman饰）和血气方刚的新扎警员米尔斯（布拉德•皮特BradPitt饰）都陷入了破案的谜团中。他们去图书馆研读但丁的《神曲》，企图从人间地狱的描绘中找到线索，最后从宗教文学哲学的世界中找到了凶手作案计划和手段的蛛丝马迹。凶手前来投案自首，这令众人都松了一口气，以为案件就此结束，怎料还是逃不出七宗罪的杀人逻辑，这次凶手瞄准的目标，是那个犯了“愤怒”罪的人……</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['暴食', '贪图', '懈怠', '吃醋', '自大', '淫欲', '义愤', '这是', '天主教', '教义', '所指', '人性', '七宗罪', '城市', '产生', '连坏', '杀人案', '死者', '刚巧', '犯有', '凶手', '弄虚作假', '作案', '伎俩', '资深', '冷清', '巡捕', '沙摩塞', '摩根', '弗里', '气血方刚', '米尔斯', '布拉德', '皮特', '堕入', '破案', '疑团', '图书馆', '研读', '但丁', '神曲', '企图', '人间地狱', '刻画', '找到', '思路', '临了', '宗教', '文学', '哲学', '世界', '安排', '办法', '一望可知', '前来', '投案自首', '这令', '专家', '一口气', '以为', '案件', '就此结束', '怎料', '逃不出', '杀人', '逻辑', '此次', '对准', '方向']</t>
         </is>
       </c>
     </row>
@@ -1672,15 +1694,11 @@
           <t>The Pursuit of Happyness</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D21" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1715,6 +1733,11 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>克里斯•加纳（威尔·史密斯WillSmith饰）用尽全部积蓄买下了高科技治疗仪，到处向医院推销，可是价格高昂，接受的人不多。就算他多努力都无法提供一个良好的生活环境给妻儿，妻子（桑迪·牛顿ThandieNewton饰）最终选择离开家。从此他带着儿子克里斯托夫（贾登·史密斯JadenSmith饰）相依为命。克里斯好不容易争取回来一个股票投资公司实习的机会，就算没有报酬，成功机会只有百分之五，他仍努力奋斗，儿子是他的力量。他看尽白眼，与儿子躲在地铁站里的公共厕所里，住在教堂的收容所里……他坚信，幸福明天就会来临。</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['克里斯', '加纳', '威尔', '史密斯', '用尽', '全数', '积聚', '买下', '高技术', '治疗仪', '到处', '医院', '倾销', '价值', '激昂', '担当', '就算', '全力', '无法', '供给', '优异', '生存', '处境', '妻儿', '夫妻', '桑迪', '牛顿', '最后', '选定', '摆脱', '今后', '儿子', '克里斯托夫', '贾登', '生死与共', '好不容易', '争取', '回归', '股票投资', '公司', '实习', '契机', '没有', '待遇', '告捷', '百分之五', '努力奋斗', '力气', '冷眼', '地铁站', '公共厕所', '教堂', '收容所', '信任', '华蜜', '明天', '光降']</t>
         </is>
       </c>
     </row>
@@ -1732,15 +1755,11 @@
           <t>Love Letter</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.9</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1776,6 +1795,11 @@
         <is>
           <t>日本神户某个飘雪的冬日，渡边博子（中山美穗）在前未婚夫藤井树的两周年祭日上又一次悲痛到不能自已。正因为无法抑制住对已逝恋人的思念，渡边博子在其中学同学录里发现“藤井树”在小樽市读书时的地址时，依循着寄发了一封本以为是发往天国的情书。
 不想不久渡边博子竟然收到署名为“藤井树（酒井美纪）”的回信，经过进一步了解，她知晓此藤井树是一个同她年纪相仿的女孩，且还是男友藤井树（柏原崇）少年时代的同班同学。为了多了解一些昔日恋人在中学时代的情况，渡边博子开始与女性藤井树书信往来。而藤井树在不断的回忆中，渐渐发现少年时代与她同名同姓的那个藤井树曾对自己藏了一腔柔情。</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['日本', '神户', '飘雪', '冬日', '渡边', '博子', '中山美穗', '未婚夫', '藤井树', '两周年', '祭日', '一次', '哀思', '不由自主', '无法', '克制', '已逝', '恋人', '怀想', '同学录', '发掘', '小樽市', '念书', '住址', '依循着', '寄发', '一封', '以为', '发往', '天国', '情书', '不想', '不久', '果然', '收到', '具名', '酒井', '美纪', '回信', '进一步', '了然', '了解', '年事', '好像', '女孩', '男友', '柏原崇', '少年时代', '同班同学', '夙昔', '中学', '年代', '境况', '女性', '书信往来', '不息', '印象', '慢慢', '同名同姓', '一腔', '柔情']</t>
         </is>
       </c>
     </row>
@@ -1789,15 +1813,11 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D23" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.6</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1832,6 +1852,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>重庆一间工艺品厂已经濒临倒闭，却不料在拆倒旧厂房的时候，发现了厕所里的一件宝物——一块价值连城的翡翠。厂里决定用这块翡翠举办一个展览，赚些钱发拖欠了几个月的工人工资。期间由工艺品厂保卫科长包世宏（郭涛饰）负责看守这件宝物。但是，国际大盗麦克与本地一帮小偷却让包世宏一筹莫展，他们各施其技接近翡翠，展览馆开始了一场明争暗斗的较量。黑色幽默也开始幕幕上演。翡翠的价值几何？最后谁是胜出者？事情远没有表面那么简单……</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>['重庆', '一间', '工艺品厂', '一经', '濒临', '倒闭', '不意', '拆倒', '厂房', '发掘', '厕所', '一件', '宝物', '一同', '价值千金', '翡翠', '厂里', '决定', '这块', '举办', '展览', '赚些', '钱发', '拖欠', '几个', '工人工资', '时候', '保卫', '科长', '包世宏', '郭涛', '承当', '监视', '这件', '国外', '大盗', '麦克', '当地', '一帮', '小偷', '一筹莫展', '各施', '其技', '挨近', '展览馆', '勾心斗角', '比试', '黑色幽默', '幕幕', '上演', '代价', '几何', '临了', '胜出', '事务', '没有', '理论', '扼要']</t>
         </is>
       </c>
     </row>
@@ -1849,15 +1874,11 @@
           <t>The Devil Wears Prada</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+      <c r="D24" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1893,6 +1914,11 @@
         <is>
           <t>初涉社会的安德丽娅•桑切丝（安妮•海瑟薇饰）来到了著名时尚杂志《RUNWAY》面试，以聪明得到了主编米兰达•普雷斯丽（梅利尔•斯特里普）的特许，让她担任自己的第二助理。开始的时候安德丽娅感到十分委屈，就算自己多努力工作也无法得到赞赏，经一位老前辈的指点便重新改造自己。工作越来越顺，甚至取代了第一助理在米兰达心中的地位，决定带着这个聪明的女孩前往法国。可安德丽的改变让她失去了男友及朋友的爱，令她非常矛盾。
 到达法国后，她得知了米兰达的地位不保了，没想到米兰达竟然牺牲自己多年的好搭档保住了自己的地位，此事令安德丽娅深感失望，有了抽身离去的想法，到底安德丽娅会何去何从？</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['初涉', '社会', '安德丽娅', '切丝', '安妮', '海瑟薇饰', '到达', '盛名', '时尚杂志', '口试', '明慧', '取得', '主编', '米兰达', '普雷斯', '利尔', '特里普', '特准', '承担', '助手', '感到', '万分', '冤枉', '就算', '全力', '事业', '无法', '称誉', '一位', '老前辈', '指引', '从头', '改动', '越来越', '代替', '第一', '心中', '位子', '决定', '女孩', '前去', '法国', '可安德丽', '变化', '失却', '男友', '同伴', '异常', '冲突', '得悉', '不保', '没想到', '果然', '弃世', '多年', '好搭档', '保住', '此事', '令安德丽娅', '深感', '失望', '抽身', '告辞', '年头', '事实', '安德丽娅会', '何去何从']</t>
         </is>
       </c>
     </row>
@@ -1910,15 +1936,11 @@
           <t>Roman Holiday</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1953</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1957,6 +1979,11 @@
 安妮公主在经历了罗马一日假期后，反而体验了自己对国家的责任，毅然返回了大使馆，为了本身的责任而果断抛弃了爱情。</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['欧洲', '某国', '安妮', '公主', '奥黛丽', '赫本', '到访', '罗马', '国务', '烦身', '厌倦', '烦文缛礼', '夜晚', '身心俱疲', '偷偷', '到达', '民间', '抚玩', '夜景', '巧遇', '报社记者', '格里', '高利', '派克', '二人', '把手', '同游', '异常', '康乐', '更是', '家中', '作客', '止宿', '不意', '偶而', '发掘', '的确', '身份', '决定', '炮制', '独家新闻', '同伴', '摄影师', '欧文', '埃迪', '艾伯特', '一块', '偷拍', '好多', '生活照', '接下来', '相处', '不知不觉', '恋上', '保卫', '局面', '只可', '忍痛', '废弃', '功成名就', '良机', '像片', '送予', '履历', '一日', '假期', '反而', '体味', '公家', '仔肩', '断然', '回笼', '大使馆', '本身', '恋爱']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1968,15 +1995,11 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2012,6 +2035,11 @@
         <is>
           <t>1942年10月10日，汪伪政权举行了盛大的国民政府庆典。然而，一系列的军政要员遇刺事件，让身为特务处长王田香（王志文饰）如坐针毡。在对女刺客（刘威葳饰）的酷刑审问中，他获得了一条关键的情报——代号为老鬼的地下党已经混入了剿匪司令部。立功心切的王田香立刻向日本皇军特务机关长武田（黄晓明饰）做了汇报。二人随即在裘庄布下了一个圈套，意图通过放出假消息逼老鬼现身。
 在被怀疑的对象中，有司令的侍从官白小年（苏有朋饰）、军机处长金生火（英达饰）、剿匪大队长吴志国（张涵予饰）、译电组组长李宁玉（李冰冰饰）以及行政收发专员顾晓梦（周迅饰）。在怀疑与排查中，武田与王田香不择手段软硬兼施，然而事情的发展却出乎意料……</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['汪伪政权', '举办', '广泛', '国民政府', '仪式', '一系列', '军政', '要员', '遇刺', '事件', '身为', '密探', '处长', '王田香', '王志文', '坐卧不宁', '刺客', '刘威葳饰', '严刑', '审讯', '获取', '一条', '关头', '情报', '代号', '地下党', '一经', '混入', '剿匪', '司令部', '建功', '心切', '当即', '日本', '皇军', '坎阱', '长武田', '黄晓明', '报告', '二人', '即刻', '裘庄', '布下', '圈套', '妄想', '放出', '假消息', '现身', '可疑', '器材', '司令', '侍从官', '白小年', '苏有朋', '军机处', '长金', '生火', '英达饰', '大队长', '吴志国', '张涵', '予饰', '译电', '组组长', '李宁', '李冰冰', '行政', '收发', '专员', '顾晓梦', '迅饰', '排查', '武田', '不择手段', '恩威并济', '事务', '兴盛', '出乎意外']</t>
         </is>
       </c>
     </row>
@@ -2029,15 +2057,11 @@
           <t>The Curious Case of Benjamin Button</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D27" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2073,6 +2097,11 @@
         <is>
           <t>飓风正在侵袭美国新奥尔良，一位病危的老妇睁开了她的睡眼。老妇名叫戴茜（凯特·布兰切特饰），她叫女儿凯若琳（朱莉娅•奥蒙德饰）为她阅读一本日记。这本日记的作者叫本杰明•巴顿（布拉德•皮特饰）。本杰明出生在第一次世界大战停战之时，但生来便像个老人的他被父亲当作怪物，被遗弃在了养老院。本杰明在养老院与老人们一起生活。但谁都没有想到，本杰明逆向发育——越活越年轻！也许“越活越年轻”是某些人的梦想，但真正这样成长的本杰明却有了别人无法理解的烦恼与快乐。穿越半世纪的世界变革，本杰明身处其中，感受别人感受不到的感受。
 为何母亲会让自己念这本日记？本杰明•巴顿此人与母亲有什么关系？凯若琳陷入了深深的疑惑与好奇之中。</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['飓风', '正在', '侵犯', '美国', '新奥尔良', '一位', '病危', '老妇', '张开', '睡眼', '名叫', '戴茜', '凯特', '布兰', '切特', '儿子', '凯若琳', '莉娅', '奥蒙德', '浏览', '一册', '日志', '这本', '作家', '本杰明', '巴顿', '布拉德', '皮特饰', '出世', '第一次世界大战', '休战', '生来', '白叟', '父亲', '作为', '怪物', '被遗弃', '养老院', '人们', '一块', '生存', '没有', '想到', '逆向', '发展', '越活', '年轻', '也许', '妄想', '真实', '他人', '无法', '了解', '懊恼', '康乐', '穿越', '半世纪', '世界', '变化', '身处', '感受', '不到', '母亲', '此人', '关系', '堕入', '深深', '疑忌', '奇怪', '之中']</t>
         </is>
       </c>
     </row>
@@ -2090,15 +2119,11 @@
           <t>無間道</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2134,6 +2159,11 @@
         <is>
           <t>1991年，香港黑帮三合会会员刘健明（刘德华）听从老大韩琛（曾志伟）的吩咐，加入警察部队成为黑帮卧底，韩琛许诺刘健明会帮其在七年后晋升为见习督察。1992年，警察训练学校优秀学员陈永仁（梁朝伟）被上级要求深入到三合会做卧底，终极目标是成为韩琛身边的红人。2002年，两人都不负重望，也都身背重压，刘健明渐想成为一个真正的好人，陈永仁则盼着尽快回归警察身份。
 重案组从陈永仁手中获悉一批毒品交易情报，锁紧目标人物韩琛，没料情报被刘健明泄出，双方行动均告失败。但此事将双方均有卧底的事实暴露，引发双方高层清除内鬼的决心。命运迥异又相似的刘健明和陈永仁开始在无间道的旅程中接受严峻考验。</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['香港', '黑帮', '三合会', '会员', '刘健明', '刘德华', '听从', '大哥', '韩琛', '曾志伟', '叮嘱', '出席', '警察部队', '成为', '卧底', '允诺', '七年', '晋升为', '见习', '看守', '捕快', '演练', '学宫', '优异', '学员', '陈永仁', '梁朝伟', '上司', '哀求', '深入', '终极目标', '身边', '红人', '两人', '不负重望', '身背', '重压', '渐想', '真实', '善人', '尽快', '回归', '身份', '重案', '组从', '手中', '得知', '一批', '毒品', '交往', '情报', '锁紧', '方向', '人物', '没料', '泄出', '两边', '行为', '均告失败', '此事', '事实', '揭穿', '引发', '高层', '拔除', '内鬼', '信念', '命运', '差异', '犹如', '无间道', '旅程', '担当', '严峻考验']</t>
         </is>
       </c>
     </row>
@@ -2151,15 +2181,11 @@
           <t>畫皮</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
+      <c r="D29" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2199,6 +2225,11 @@
 佩容所作一切但求王生安好，王生心痛佩容不相信自己，小唯委曲求全希冀得到爱情，庞勇和夏冰已蓄势待发。</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['中国', '古典名著', '聊斋志异', '改编', '秦汉', '年间', '都尉', '王生', '陈坤饰', '王家', '军在', '西域', '死战', '救回', '佳', '小唯', '迅饰', '没有', '看到', '到来', '之前', '刚刚', '吞食', '人心', '保全', '人形', '九霄', '美狐小', '唯对', '一拍即合', '跟从', '回家', '后以', '妹妹', '自居', '眼看', '佩容', '赵薇饰', '夫妻情', '暗地里', '代替', '位子', '成为', '夫妻', '深爱着', '小唯且', '杀人', '取心', '蜥蜴', '精小易', '几度', '表明', '吼怒', '城里', '越来越', '心脏', '誓要', '查个', '原形毕露', '一经', '感觉', '小唯异', '凡人', '丈夫', '故意', '碍于', '一派', '信任', '只有', '寻找', '从前', '生气', '出走', '旧情', '庞勇', '甄子丹', '佐理', '降魔', '夏冰', '出于', '天命', '挺身而出', '去除', '所作', '但求', '安全', '心痛', '低头折节', '冀望', '取得', '恋爱', '蓄势待发']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2214,15 +2245,11 @@
           <t>重慶森林</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2258,6 +2285,11 @@
         <is>
           <t>编号为223的警察（金城武）失恋后患上失恋综合症，在与金发女杀手（林青霞）擦肩而过又离奇相遇并有了一晚温情后，原本以为包括“爱情”在内的所有东西都有保质期的他意外地迎来心灵的短暂温暖。可是，他们的爱情还是结束了。
 快餐店新来的女招待阿菲（王菲）爱上了时常光顾快餐店的编号为663的警察（梁朝伟），因拆了他的女友（周嘉玲）留在快餐店给他的“分手”信，阿菲知晓了他的心情，偷拿到他的钥匙趁他不在时常潜入他家，一边梦游一边悄悄地改变他的生活，终在被他撞见时令其感受到情感的回归。然而，这才是他们爱情的开始。</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['编号', '捕快', '金城武', '失恋', '后患', '综合症', '金发', '女杀手', '林青霞', '擦肩而过', '怪僻', '相逢', '一晚', '温和', '其实', '以为', '包孕', '恋爱', '在内', '全豹', '东西', '保质期', '不测', '迎来', '心灵', '暂时', '完结', '快餐店', '新来', '女招待', '阿菲', '王菲', '爱上', '不时', '光临', '梁朝伟', '女友', '周嘉玲', '留在', '仳离', '了解', '心境', '拿到', '钥匙', '深入', '他家', '一壁', '梦游', '悄悄地', '变化', '生存', '终在', '撞见', '季候', '感受', '情意', '回归', '这才']</t>
         </is>
       </c>
     </row>
@@ -2275,15 +2307,11 @@
           <t>Les choristes</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
+      <c r="D31" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2322,6 +2350,11 @@
 然而，事情并不顺利，克莱门特发现学生皮埃尔·莫安琦（让-巴蒂斯特·莫尼耶饰）拥有非同一般的音乐天赋，但是单亲家庭长大的他，性格异常敏感孤僻，怎样释放皮埃尔的音乐才能，让克莱门特头痛不已；同时，他与皮埃尔母亲的感情也渐渐微妙起来。</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['法国', '乡下', '音乐家', '克莱门特', '热拉尔', '尼奥', '一间', '外号', '汉子', '寄宿', '学宫', '助手', '先生', '学徒', '大部分', '难缠', '问题', '儿童', '体罚', '不以为奇', '校长', '弗朗索瓦', '莱昂', '只管', '前程', '横暴', '高压', '性情', '娴静', '实验', '办法', '刷新', '这种', '景况', '从头', '创作', '音乐作品', '机构', '合唱团', '决定', '音乐', '开启', '关闭', '心灵', '事务', '成功', '发掘', '皮埃尔', '莫安琦', '巴蒂斯特', '莫尼耶饰', '占有', '非同一般', '先天', '单亲家庭', '长大', '十分', '敏感', '孤介', '开释', '音乐才能', '头痛', '不已', '母亲', '情愫', '慢慢', '奥妙', '起来']</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2333,15 +2366,11 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D32" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2377,6 +2406,11 @@
         <is>
           <t>20世纪70年代初的北京，忙着“闹革命”大人无空理会小孩，加上学校停课无事可做，以军队大院男孩为突出代表的少年人便自找乐子，靠起哄、打架、闹事、拍婆子等方式挥霍过量的荷尔蒙。马小军（夏雨饰）就是这样的少年，他的嗜好之一是趁别人家无人用万能钥匙将其锁打开，溜进去耍玩一番，正是用这样的方式，少女米兰（宁静饰）的照片先于其人入了马小军的双眼。通过院里的“头儿”刘忆苦（耿乐饰），马小军又见到之前在炮局偶然瞥见过一眼的米兰，开始正式将其当作梦中情人，然而在米兰眼中，马小军不过是毛孩一个，她中意的人是成熟、稳重、帅气的刘忆苦。自此，马小军迎来五味混杂的青春期生活。
 本片改编自王朔短篇小说《动物凶猛》。夏雨凭此片获得第51届威尼斯国际电影节最佳男演员（银狮奖）。</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['世纪', '岁月', '北京', '闹革命', '大人', '无空', '搭理', '儿童', '加上', '学宫', '停课', '无事', '军队', '大院', '男孩', '了得', '代表', '少年人', '自找', '乐子', '起哄', '打斗', '肇事', '婆子', '体例', '奢侈', '过量', '荷尔蒙', '马小军', '夏雨饰', '少年', '喜好', '他人', '无人', '万能钥匙', '其锁', '开启', '溜进去', '耍玩', '恰是', '仙女', '米兰', '僻静', '像片', '先于', '其人入', '双眼', '院里', '头儿', '忆苦', '耿乐饰', '见到', '之前', '炮局', '偶尔', '望见', '一眼', '正式', '作为', '梦中', '恋人', '眼中', '毛孩', '中意', '成熟', '沉稳', '帅气', '以后', '迎来', '五味', '混合', '青春期', '生存', '本片', '改编自', '王朔', '短篇小说', '动物', '凶横', '夏雨', '此片', '获取', '威尼斯', '国外', '电影节', '最佳', '男演员', '银狮奖']</t>
         </is>
       </c>
     </row>
@@ -2394,15 +2428,11 @@
           <t>Trainspotting</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D33" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.6</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2438,6 +2468,11 @@
         <is>
           <t>苏格兰爱丁堡，雷登（伊万·麦克格雷格EwanMcGregor饰）、土豆（艾文·布莱纳EwenBremner饰）和病仔（约翰尼·李·米勒JonnyLeeMiller饰）三个青年过着混沌糜烂的生活，他们吸毒、滥交、诈骗无所不作，而在如此肆无忌惮挥霍青春的过程中，毒品成为一切万恶之源。雷登对之亦爱亦恨，试图戒毒却最终重蹈覆辙。在一次纵情狂欢后，他们三个不知谁和少女爱丽森（SusanVidler饰）所生的婴儿死去。以此为开端，噩梦真正降临。土豆抢劫时锒铛入狱，雷登吸食毒品过量被送往医院抢救，后被强制戒毒。恐怖的幻觉和心底生气的恐惧迫使他不得不和毒品一刀两断。看似美好的新生活，但往日狐朋狗友贝格比（罗伯特·卡莱尔RobertCarlyle饰）等找上门来，再度给他带来无限的烦恼……
 本片根据欧文·威尔士（IrvineWelsh）的同名小说改编，</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['苏格兰', '爱丁堡', '雷登', '伊万', '麦克', '格雷格', '土豆', '艾文', '莱纳', '病仔', '约翰尼', '米勒', '三个', '后生', '朦拢', '糜烂', '生存', '吸毒', '滥交', '愚弄', '无所不作', '任性妄为', '奢侈', '芳华', '经过', '毒品', '成为', '万恶之源', '试图', '戒毒', '最后', '覆车继轨', '一次', '尽情', '狂欢', '不知', '仙女', '爱丽森', '所生', '婴儿', '故去', '以此', '先导', '噩梦', '真实', '到临', '强抢', '身陷囹圄', '吸食毒品', '过量', '送往', '医院', '急救', '压迫', '可骇', '幻觉', '心底', '动怒', '哆嗦', '唆使', '不得不', '一刀两断', '看似', '优美', '夙昔', '三朋四友', '贝格', '罗伯特', '卡莱尔', '找上门来', '再度', '带来', '无尽', '懊恼', '本片', '欧文', '威尔士', '同名', '小说', '改编']</t>
         </is>
       </c>
     </row>
@@ -2455,15 +2490,11 @@
           <t>Braveheart</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D34" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.9</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2499,6 +2530,11 @@
         <is>
           <t>威廉•华莱士童年时，其父、苏格兰民族英雄马索•华莱士在与英军的斗争中牺牲，他开始接受父亲好友的指导，学习苏格兰文化和武术。青年华莱士（梅尔•吉布森）学成回到故乡，向美丽的少女梅伦求婚，不想梅伦被英军抢去且遭杀害。在广大村民“英雄之后”的呼声中，华莱士率众揭竿起义，并与苏格兰贵族罗伯结成联盟，但不久他发现，苏格兰贵族考虑的只是自身的利益。
 英王为缓和局势，派伊莎贝拉（苏菲•玛索）前去和华莱士谈判，由于英王只想收买华莱士，根本不顾苏格兰人民的自由和平等，谈判失败，但这一切并不为伊莎贝拉所知。伊莎贝拉归国后发现事情真相，且知晓英王正策划阴招，忙送信给华莱士，而两人的爱情，也在战争与阴谋中悄然滋生。</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['威廉', '华莱士', '童年', '其父', '苏格兰', '民族英雄', '马索', '英军', '博斗', '弃世', '担当', '父亲', '好友', '向导', '学习', '文化', '技击', '后生', '梅尔', '吉布森', '学成', '回到', '乡里', '倩丽', '仙女', '梅伦', '求婚', '不想', '抢去', '摧残', '宽广', '村民', '俊杰', '之后', '呼声', '率众', '揭竿起义', '贵族', '罗伯', '结成联盟', '不久', '发掘', '探讨', '便宜', '英王', '平静', '大局', '伊莎贝拉', '苏菲', '玛索', '前去', '商议', '只想', '拉拢', '基础', '不顾', '人民', '自在', '同等', '凋落', '所知', '回国', '事务', '底细', '了解', '发动', '阴招', '送信', '两人', '恋爱', '交兵', '妄想', '寂然', '孳生']</t>
         </is>
       </c>
     </row>
@@ -2516,15 +2552,11 @@
           <t>Fight Club</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2564,6 +2596,11 @@
 杰克对于“搏击俱乐部”的现况及泰勒的行为越来越无法忍受，和泰勒发生争执，泰勒离开了他。然而，杰克发现，他走到何处都无法摆脱泰勒的影子，他开始思考：我到底是谁？</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['杰克', '爱德华', '诺顿', '汽车', '公司', '人员', '患有', '严峻', '失眠症', '周围', '充沛', '危境', '仇恨', '偶尔', '契机', '遇上', '番笕', '估客', '泰勒', '布拉德', '皮特', '浑身', '反叛', '凶狠', '暴烈', '痞子', '俊杰', '公寓', '失火', '破旧不堪', '家中', '两人', '因缘际会', '成为', '同伴', '创办', '搏击', '俱乐部', '人们', '不戴', '护具', '单手', '主旨', '在于', '发泄', '心绪', '地下组织', '吸引', '越来越', '逐步', '兴盛', '全国性', '一面', '魅力', '盲目', '信徒', '成员', '到处', '惹祸', '打斗', '任意', '捣乱', '本人', '手脚', '放肆', '现况', '无法忍受', '发生争执', '摆脱', '发掘', '无法', '挣脱', '影子', '思念', '事实']</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2575,15 +2612,11 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="D36" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2618,6 +2651,11 @@
       <c r="L36" t="inlineStr">
         <is>
           <t>王薄（刘德华饰）和王丽（刘若英饰）本是一对最佳贼拍档，但因怀了王薄的孩子，王丽决定收手赎罪，两人产生分歧。在火车站遇到刚刚从城市里挣了一笔钱准备回老家用它盖房子娶媳妇的农村娃子傻根（王宝强饰）后，王丽被他的单纯打动，决定暗中保护不使他的辛苦钱失窃，王薄却寻思找合适机会下手，但最终因为“夫妻情深”归入了王丽的阵营。不料傻根的钱早被以黎叔（葛优饰）为头目的另一著名扒窃团伙盯上，于是一系列围绕傻根书包里的钞票、在王薄、王丽和黎叔团伙之间展开的强强斗争上演。</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['王薄', '刘德华', '王丽', '刘若英', '本是', '一双', '最佳', '拍档', '因怀', '儿童', '决定', '收手', '赎罪', '两人', '产生分歧', '火车站', '碰到', '刚刚', '城市', '一笔', '企图', '回老家', '盖房子', '娶媳妇', '乡下', '娃子', '傻根', '王宝', '强饰', '单一', '感动', '暗中', '保卫', '不使', '艰辛', '失窃', '寻思', '事宜', '契机', '下手', '最后', '夫妻情', '归入', '营垒', '不意', '以黎叔', '葛优', '为头', '目标', '盛名', '扒窃', '团伙', '盯上', '一系列', '围绕', '书包', '金钱', '黎叔', '之间', '伸开', '强强', '博斗', '上演']</t>
         </is>
       </c>
     </row>
@@ -2635,15 +2673,11 @@
           <t>Schindler's List</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
+      <c r="D37" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.6</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2682,6 +2716,11 @@
 1944年，德国战败前夕，屠杀犹太人的行动越发疯狂，辛德勒向德军军官开出了1200人的名单，倾家荡产买下了这些犹太人的生命。在那些暗无天日的岁月里，拯救一个人，就是拯救全世界。</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>['波兰', '纳粹德国', '管理', '党卫军', '犹太人', '举行', '远隔', '德国', '估客', '奥斯卡', '辛德勒', '连姆', '尼森', '到达', '德军', '克拉科夫', '开设', '一间', '搪瓷厂', '坐褥', '军需', '用品', '凭着', '出众', '社交能力', '大批', '款项', '创建', '优异', '关系', '工厂', '招聘', '事业', '大发', '交兵', '遭到', '惨无人道', '大屠杀', '目击', '受到', '极大', '轰动', '行贿', '军官', '成为', '集中营', '从属', '劳役', '放肆', '博斗', '日子', '避难所', '失利', '前夕', '行为', '尤其', '向德军', '开出', '名单', '倾家破产', '买下', '人命', '天昏地暗', '光阴', '急救', '全世界']</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2697,15 +2736,11 @@
           <t>Pulp Fiction</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D38" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8.9</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2746,6 +2781,11 @@
 故事环状结构，回到开端。朱尔斯在小盗贼面前诵读圣经，表示对杀人的厌倦和感悟。什么事件令他如此转变？“邦妮的处境”中就有答案。</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>['低俗小说', '文森特', '马沙', '夫妻', '金表', '境遇', '三个', '故事', '影片', '首尾', '序幕', '尾声', '五个', '局限', '构成', '看似', '并立', '内里', '丝丝入扣', '人和事', '盗匪', '南瓜', '小兔子', '早餐', '店里', '侵掠', '遇上', '天大', '费事', '黑社会', '成员', '尔斯', '塞缪尔', '杰克逊', '约翰', '特拉', '沃尔塔', '用餐', '可谓', '别有洞天', '二人', '放过', '两名', '大哥', '华莱士', '瑞姆斯', '属下', '马沙下', '吩咐', '夜晚', '明知', '雷池', '必死无疑', '面临', '富丽', '蛊惑', '没完', '拳击手', '布奇', '布鲁斯', '威利斯', '产生', '将令', '人生', '今后', '变化', '一同', '家传', '这块', '共享', '污辱', '机要', '环状', '构造', '回到', '先导', '眼前', '朗诵', '圣经', '显示', '杀人', '厌倦', '感悟', '事件', '变更', '答案']</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2761,15 +2801,11 @@
           <t>The Reader</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D39" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.6</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2809,6 +2845,11 @@
 在2009年初的第81届奥斯卡上，该片共获包括最佳女主角在内的5项提名，最终温丝莱特凭借该片折冠当年奥斯卡影后。</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['少年', '伯格', '大卫', '克劳斯', '偶遇', '中年', '机密', '列车', '售票员', '汉娜', '凯特', '温丝', '莱特', '其后', '两个', '兴盛', '一段', '机要', '恋人', '关系', '喜好', '怀里', '听米', '夏为', '念书', '总是', '沉浸', '朗朗', '读书声', '年轻', '沉溺于', '这种', '一落千丈', '发掘', '基础', '了然', '倏忽', '女人', '不告而别', '暂时', '疑惑', '哀痛', '之后', '生存', '二战', '完结', '德国', '纳粹', '战犯', '审判', '一直', '成为', '公法', '学宫', '实习生', '一次', '旁听', '经过', '果然', '熟习', '身影', '一经', '事隔', '一眼', '认出', '泯灭', '法庭', '被告席', '往事', '案件', '审理', '逐步', '了了', '人命', '规避', '最后', '被判', '终生', '幽囚', '此时', '拉尔夫', '费因斯', '故事', '岁首', '奥斯卡', '该片', '包孕', '最佳', '女主角', '在内', '提名', '折冠', '从前', '影后']</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2824,15 +2865,11 @@
           <t>Twilight</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
+      <c r="D40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.6</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2867,6 +2904,11 @@
       <c r="L40" t="inlineStr">
         <is>
           <t>因为父母离异，贝拉（克里斯汀•斯图尔特KristenStewart饰）随父亲来到小镇生活。在新学校里，贝拉留意到一群举止诡异的怪人，他们特立独行，很是神秘。在实验课上，她遇到了怪人中的一个——金发帅哥爱德华（罗伯特•帕丁森RobertPattinson饰），他俊朗的外形与出众的谈吐令她着迷。在交往中，贝拉渐渐对爱德华产生了感情，但其他怪人对她心存戒备。与此同时，小镇里接连发生死亡事件，贝拉的父亲是警察，负责调查此案。然而，警方的介入并没有阻止死亡威胁的蔓延。在一次意外中，爱德华救出了贝拉。从此，她发现他拥有异于常人的超能力，开始怀疑对方是杀人凶手。在事实面前，爱德华对她坦白，自己是素食吸血鬼，所以凶手另有其人。在杀人凶案的羁绊中，一场人鬼之恋由此展开……</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>['父母', '仳离', '贝拉', '克里斯', '斯图尔特', '父亲', '到达', '小镇', '生存', '学宫', '留意到', '一群', '举动', '诡异', '怪人', '特立独行', '机密', '实验课', '碰到', '金发', '帅哥', '爱德华', '罗伯特', '帕丁森', '俊朗', '外形', '出众', '言谈', '入迷', '交往', '慢慢', '产生', '情愫', '心存', '堤防', '持续', '仙逝', '事件', '捕快', '承当', '侦察', '此案', '警方', '介入', '没有', '停止', '死亡威胁', '延伸', '一次', '不测', '救出', '今后', '发掘', '占有', '凡人', '超能力', '可疑', '对方', '杀人', '凶手', '事实', '眼前', '坦率', '素食', '剥削者', '另有其', '凶案', '牵制', '人鬼', '之恋', '由此', '伸开']</t>
         </is>
       </c>
     </row>
@@ -2884,15 +2926,11 @@
           <t>The Silence of the Lambs</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D41" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.9</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2927,6 +2965,11 @@
       <c r="L41" t="inlineStr">
         <is>
           <t>联调局学院学员ClariceM.Starling（乔迪·福斯特饰）受行为科学组的JackCrawford（斯科特·格伦饰）指派，前往州立巴尔的摩法医院访问被监禁的精神科医生HannibalLecter（安东尼·霍普金斯饰）。Lecter要求转到条件较好的联邦机构，远离常常折磨他的FrederickChilton医生（安东尼·希尔德饰），并愿意为此提供持续作案的连环杀手水牛比尔（泰德·莱文饰）的心理分析……</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>['联调', '学院', '学员', '乔迪', '福斯特', '行为科学', '斯科特', '格伦饰', '指使', '前去', '州立', '巴尔的摩', '医院', '探问', '幽囚', '精神科', '医师', '安东尼', '霍普金斯', '哀求', '前提', '联邦', '机构', '离开', '一再', '折磨', '希尔德', '应许', '为此', '供给', '延续', '作案', '连环', '杀手', '水牛', '比尔', '泰德', '掩瞒', '心思', '了解']</t>
         </is>
       </c>
     </row>
@@ -2944,15 +2987,11 @@
           <t>藍色大門</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
+      <c r="D42" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.4</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2987,6 +3026,11 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>高中生孟克柔（桂纶镁饰）与林月珍（梁淑慧饰）是无话不谈的好友，月珍告诉克柔，说自己喜欢上了一个叫张士豪（陈柏霖饰）的男生，便常常要求克柔帮她接近张士豪，帮忙认识他、帮忙传递情书。没想到张士豪以为喜欢自己的是孟克柔，所以也常常借故接近她，跟她在一起。传递情书的事，被张贴出来，原来林月珍是以孟克柔的名义给张士豪写信，孟克柔非常生气而从而跟林月珍的关系疏远了。另一边厢孟克柔极不愿意承认她与张士豪之间是恋人的关系，可是张士豪已深深喜欢上她。孟克柔想跟男生接吻，因为她想清楚一件事，原来她心里，喜欢的是另外一个人。</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['高中生', '孟克柔', '桂纶', '林月珍', '梁淑慧饰', '无话不谈', '好友', '月珍', '叮嘱', '克柔', '喜好', '张士豪', '陈柏霖', '男生', '一再', '哀求', '挨近', '佐理', '理解', '传达', '情书', '没想到', '以为', '借口', '一块', '张贴', '出来', '从来', '名义', '写信', '异常', '动怒', '关系', '亲昵', '另一边', '厢孟克柔', '应许', '供认', '之间', '恋人', '深深', '接吻', '懂得', '一件', '内心']</t>
         </is>
       </c>
     </row>
@@ -3004,15 +3048,11 @@
           <t>となりのトトロ</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D43" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3048,6 +3088,11 @@
         <is>
           <t>小月的母亲生病住院了，父亲带着她与四岁的妹妹小梅到乡间的居住。她们对那里的环境都感到十分新奇，也发现了很多有趣的事情。她们遇到了很多小精灵，她们来到属于她们的环境中，看到了她们世界中很多的奇怪事物，更与一只大大胖胖的龙猫成为了朋友。龙猫与小精灵们利用他们的神奇力量，为小月与妹妹带来了很多神奇的景观，令她们大开眼界。
 妹妹小梅常常挂念生病中的母亲，嚷着要姐姐带着她去看母亲，但小月拒绝了。小梅竟然自己前往，不料途中迷路了，小月只好寻找她的龙猫及小精灵朋友们帮助。</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['小月', '母亲', '染病', '住院', '父亲', '四岁', '妹妹', '小梅', '乡下', '居住', '处境', '感到', '万分', '别致', '发掘', '好多', '意思', '事务', '碰到', '小精灵', '到达', '属于', '看到', '世界', '奇异', '事物', '一只', '大大', '胖胖的', '龙猫', '成为', '同伴', '使用', '奇妙', '力气', '带来', '景色', '大开眼界', '一再', '惦记', '姐姐', '圮绝', '果然', '前去', '不意', '途中', '迷路', '只好', '寻找', '匡助']</t>
         </is>
       </c>
     </row>
@@ -3065,15 +3110,11 @@
           <t>東邪西毒</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D44" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.6</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3109,6 +3150,11 @@
         <is>
           <t>在恋人（张曼玉）负气嫁给兄长的当晚，欧阳锋（张国荣）黯然离开白陀山，走进沙漠某个小镇，成为一名杀手中介人。他的朋友、风流剑客黄药师（梁家辉）每年都来小镇与他畅饮，酒话里有关白陀山的消息令他忘却往事的念想渐次演变成自欺行为。
 黄药师只是表面风流。他迷恋好友“盲武士”（梁朝伟）的妻子桃花（刘嘉玲），后者在丈夫死后，永远地离开了他；而对迷恋他的女人慕容嫣（林青霞），他又不愿兑现曾经随口说出的承诺，这使得慕容嫣迷失于自己的身份中。与欧阳锋构成短暂“买凶杀人”关系的洪七（张学友）、村姑（杨采妮）等人，也都有一段只有他们自己才知、不愿回首的痛苦过往。</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['恋人', '张曼玉', '生气', '嫁给', '兄长', '当晚', '欧阳锋', '张国荣', '沮丧', '摆脱', '白陀山', '走进', '戈壁', '小镇', '成为', '一名', '杀手', '中介人', '同伴', '风流', '剑客', '黄药师', '梁家辉', '每年', '浩饮', '酒话', '信息', '忘却', '往事', '渐次', '演变成', '自欺', '手脚', '理论', '着迷', '好友', '军人', '梁朝伟', '夫妻', '桃花', '刘嘉玲', '后者', '丈夫', '死后', '恒久', '女人', '慕容', '林青霞', '不愿', '兑现', '也曾', '随口', '说出', '应承', '丢失', '身份', '构成', '暂时', '凶杀', '关系', '洪七', '张学友', '村姑', '杨采妮', '一段', '回忆', '疼痛', '过往']</t>
         </is>
       </c>
     </row>
@@ -3126,15 +3172,11 @@
           <t>西遊記大結局之仙履奇緣</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D45" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3170,6 +3212,11 @@
         <is>
           <t>至尊宝（周星驰饰）被月光宝盒带回到五百年前，遇见紫霞仙子（朱茵饰），被对方打上烙印成为对方的人，并发觉自己已变成孙悟空。
 紫霞与青霞（朱茵饰）本是如来佛祖座前日月神灯的灯芯（白天是紫霞，晚上是青霞），二人虽然同一肉身却仇恨颇深，因此紫霞立下誓言，谁能拔出她手中的紫青宝剑，谁就是她的意中人。紫青宝剑被至尊宝于不经意间拔出，紫霞决定以身相许，却遭一心记挂白晶晶（莫文蔚饰）的至尊宝拒绝。后牛魔王救下迷失在沙漠中的紫霞，并逼紫霞与他成婚，关键时刻，至尊宝现身。</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['至尊宝', '周星驰', '月光宝盒', '回到', '五百年', '碰见', '紫霞', '仙子', '朱茵饰', '对方', '烙印', '成为', '发明', '变成', '孙悟空', '青霞', '本是', '如来佛', '祖座', '亮', '神灯', '灯炷', '日间', '夜晚', '二人', '同一', '肉身', '仇恨', '颇深', '立下', '誓言', '拔出', '手中', '紫青', '宝剑', '心上人', '不经意', '决定', '以身相许', '一心', '系念', '白晶晶', '莫文蔚', '圮绝', '牛魔王', '丢失', '戈壁', '匹配', '关键时刻', '现身']</t>
         </is>
       </c>
     </row>
@@ -3183,15 +3230,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+      <c r="D46" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.7</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3227,6 +3270,11 @@
         <is>
           <t>1905年，香港中环。革命志士惨遭暗杀。知悉孙中山（张涵予饰）即将抵港，清廷遂派遣将军阎孝国（胡军饰）前来剿杀。他收买赌徒沈重阳(甄子丹饰)作密探。适逢商人李玉堂(王学圻饰)之子李重光(王柏杰饰)考学庆典，沈重阳见前妻月茹(范冰冰饰)与幼女已成他人家眷，黯然离去。为护孙，《中国日报》社长陈少白（梁家辉饰）邀戏班班主（任达华饰）出手，令其惨遭灭门，其女方红(李宇春饰)侥幸生还。陈少白被擒，与阎孝国相见，师生决裂。独子游行好友被擒等变故，使李玉堂投身革命，引得探长史密夫(曾志伟饰)查封报馆。其间，李玉堂帮车夫阿四(谢霆锋饰)与恋人阿纯（周韵饰）订婚。月茹夜会沈重阳，要他弃暗投明。打女方红、小贩王复明(巴特尔饰)、乞丐刘郁白(黎明饰)等人也先后加入护孙行列。一场惊心动魄的全城追杀由此展开……
 本片投资1.5亿人民币，史上首度以1：1的比例，在上海重铸了1905年的香港中环。</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['香港', '中环', '革命志士', '惨遭', '密谋', '洞悉', '孙中山', '张涵', '予饰', '即将', '抵港', '清廷', '打法', '将军', '阎孝国', '胡军饰', '前来', '剿杀', '拉拢', '赌徒', '重阳', '甄子丹', '密探', '刚好', '估客', '李玉堂', '王学圻', '之子', '重光', '王柏杰饰', '考学', '仪式', '前妻', '月茹', '范冰冰', '幼女', '已成', '宅眷', '沮丧', '告辞', '为护', '中国日报', '社长', '陈少白', '梁家辉', '戏班', '班主', '任达华', '入手', '令其', '灭门', '女方', '李宇春', '侥幸', '生还', '相见', '师生', '交恶', '独子', '游行', '好友', '变故', '投身', '革命', '引得', '长史', '密夫', '曾志伟', '查封', '报馆', '其间', '车夫', '阿四', '谢霆锋', '恋人', '阿纯', '周韵饰', '文定', '夜会', '弃恶从善', '小贩', '复明', '巴特尔', '乞丐', '刘郁白', '破晓', '先后', '出席', '护孙', '行列', '怦怦直跳', '全城', '追杀', '由此', '伸开', '本片', '投资', '人民币', '史上', '首度', '比例', '上海', '重铸']</t>
         </is>
       </c>
     </row>
@@ -3244,15 +3292,11 @@
           <t>海角七號</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
+      <c r="D47" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7.6</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3292,6 +3336,11 @@
 屡有调整的乐团成员——茂伯、兜售客家小米酒的马拉桑（马念先）先后取代贝斯手加入乐团，一直不顺的排练，中孝介来台的日子越来越近，对阿嘉彻底失望的友子决定放弃在台的工作回日本，但两人已在摩擦中生出感情。不久友子在阿嘉房间看到那些60年前的信件，完全被美丽的爱情故事打动，叮嘱阿嘉一定要将信件送至当事人手中。双方虽没开口表白，但爱情的力量无疑是巨大的，阿嘉因为友子重新拥有了追求音乐梦想的勇气。中孝介演出即将开始之时，信件主人的地址被找到，阿嘉也被友子告知她已接到日本唱片公司的工作邀约。</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['依傍', '大海', '倩丽', '小镇', '恒春', '音乐', '妄想', '台北', '蒙受', '反击', '年轻人', '阿嘉', '范逸臣', '作壁上观', '虽在民', '代主席', '后父', '佐理', '下成', '代班', '邮差', '书牍', '邮包', '乱堆', '房间', '寄自', '日本', '无法', '茂伯', '林宗仁', '叮嘱', '返璧', '擅自', '披阅', '张望', '内里', '一张', '泛黄', '仙女', '像片', '几封', '写于', '年前', '其时', '二战', '失利', '日籍', '先生', '中孝介', '日军', '后退', '委弃', '相约', '私奔', '女友', '归日', '途中', '爱意', '悔意', '化为', '文字', '直到', '丧生', '儿子', '代为', '寄出', '台湾', '留学', '事业', '女孩', '友子', '田中', '千绘', '故意', '成为', '模特', '觉得', '局面', '落伍', '只可', '承当', '超等', '疗伤', '歌手', '上演', '事件', '公关', '常例', '之前', '乐团', '暖场', '其实', '联合', '但民代', '僵持', '当地', '无奈', '包孕', '在内', '几个', '年纪', '个性', '较大', '不同', '外地', '爱好者', '意外事件', '吃亏', '幸福生活', '交警', '民雄', '暗恋', '老板娘', '店伙计', '水蛙', '夹子', '小应', '早熟', '小女生', '大大', '麦子', '伙伴', '之外', '几人全', '舞台', '献技', '体会', '且自', '组建', '时有', '冲突', '产生', '友子常', '气得', '暴跳如雷', '最有', '阿嘉气', '屡有', '调度', '成员', '兜售', '客家', '小米', '马拉', '马念先', '先后', '代替', '贝斯手', '出席', '不顺', '排演', '中孝介来', '日子', '越来越近', '完全', '失望', '决定', '吐弃', '两人', '生出', '情愫', '不久', '看到', '全体', '爱情故事', '感动', '叮咛', '一定', '事主', '手中', '两边', '启齿', '表明', '恋爱', '力气', '无疑', '宏伟', '从头', '占有', '谋求', '勇气', '即将', '主人', '住址', '找到', '告知', '接到', '唱片', '公司', '邀约']</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3307,15 +3356,11 @@
           <t>The Lion King</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D48" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3354,6 +3399,11 @@
 辛巴逃亡中遇到了机智的丁满和善良的彭彭，他们抚养辛巴长成雄壮的大狮子，鼓励他回去森林复国。在接下来一场复国救民的斗争中，辛巴真正长成一个坚强的男子汉，领会了责任的真谛。</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>['辛巴是', '狮子', '王国', '小王子', '父亲', '穆法', '沙是', '严穆', '国王', '叔叔', '刀疤', '穆法沙', '王位', '觊望', '王位宝座', '必得', '撤消', '使用', '各种', '借口', '辛巴', '出门', '乘机', '大开杀戒', '无奈', '即时', '再三', '推算', '惨死', '属下', '偷偷摸摸', '摆脱', '灭绝人性', '出亡', '碰到', '机敏', '丁满', '和善', '供养', '长成', '雄健', '鼓动', '且归', '丛林', '复国', '接下来', '救民', '博斗', '真实', '刚劲', '男子汉', '明白', '仔肩', '真义']</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3369,15 +3419,11 @@
           <t>おくりびと</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D49" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.9</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3413,6 +3459,11 @@
         <is>
           <t>买了昂贵的大提琴，想要成就一番事业的小林大悟（本木雅弘饰），经历了4个月的管弦乐演奏，得到的却是“乐团解散”的噩耗与购买乐器的高昂债务。迫不得已，大悟与妻子美香（广末凉子饰）搬到老屋，过着清贫的日子。某日，一则广告吸引了大悟的注意：NK代理公司，帮助旅行，高薪短工时。大悟来到NK代理公司面试，社长佐佐木生荣（山崎努饰）二话不说就决定聘用大悟，但却对工作内容避而不谈。在大悟的再三追问下，佐佐木社长终于道明：是入殓（日语NouKan）工作！
 虽然心理上有所忌惮，高额的薪水还是令大悟接受了这份工作。但这样的工作对普通人谈何容易，一方面对遗体的不适，一方面又要对妻友隐瞒自己的工作，小林大悟不平凡的工作就这样开始了。</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['不菲', '大提琴', '想要', '功劳', '事业', '小林', '大悟', '本木雅弘饰', '履历', '管弦乐', '弹奏', '取得', '却是', '乐团', '散伙', '凶信', '添置', '乐器', '激昂', '债务', '万不得已', '夫妻', '美香', '广末凉子', '老屋', '困难', '日子', '某日', '告白', '吸引', '属意', '代劳', '公司', '匡助', '旅行', '高薪', '散工', '到达', '口试', '社长', '佐佐木', '生荣', '山崎', '努饰', '二话不说', '决定', '聘任', '内容', '守口如瓶', '一再', '诘问', '到底', '入殓', '日语', '心思', '有所', '害怕', '高额', '薪水', '担当', '这份', '普通人', '来之不易', '尸身', '不适', '妻友', '狡饰', '寻常']</t>
         </is>
       </c>
     </row>
@@ -3430,15 +3481,11 @@
           <t>唐伯虎點秋香</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D50" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3473,6 +3520,11 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>唐伯虎（周星驰饰）身为江南四大才子之首，却有道不尽的心酸。宁王想唐伯虎帮忙图谋作反，唐伯虎只好用内功改变脉象，令众人都相信他命不久矣。母亲埋怨他不应该把功夫暴露，因为他们家族一直被当年的仇人追杀。唐伯虎在与朋友出游时，遇到了貌若天仙的秋香并对她一见钟情，决心要到华府当家丁以追求秋香，唐伯虎被取名华安。期间华太师遇到了宁王上门刁难，幸好有唐伯虎出面相助，并暴露了自己是唐伯虎的身份。秋香才知道华安是自己欣赏的唐伯虎。华夫人跟唐家有怨，因此二人便开始斗法。怎料宁王跟夺命书生再次上门，华夫人不是对手，幸得唐伯虎出手，华夫人也答应把秋香许配给唐伯虎。</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>['唐伯虎', '周星驰', '身为', '江南', '四大', '才子', '不尽', '心伤', '宁王', '佐理', '企图', '作反', '只好', '内功', '变化', '脉象', '专家', '信任', '他命', '不久', '母亲', '仇恨', '应当', '光阴', '揭穿', '家属', '从前', '仇人', '追杀', '同伴', '出游', '碰到', '神仙中人', '秋香', '一拍即合', '信念', '华府', '佣人', '谋求', '取名', '华安', '时候', '太师', '上门', '作对', '亏得', '出头', '互助', '身份', '明晰', '抚玩', '内人', '唐家', '二人', '斗法', '怎料', '夺命', '书生', '再次', '不是', '对手', '幸得', '入手', '甘愿', '许配给']</t>
         </is>
       </c>
     </row>
@@ -3490,15 +3542,11 @@
           <t>Malèna</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8.9</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3539,6 +3587,11 @@
 玛莲娜一步步地沉沦，与父亲断绝了关系、被送上法院，更失去了所有的财产，这使得向来天真、不经世事的雷纳多，被迫面对这纯朴小镇中，人心的残暴无情，看著已经一无所有的玛莲娜，雷纳多竟鼓起了他所不曾有过的勇气，决定靠著他自己的力量，以一种教人难以料想的方式，来帮助玛莲娜走出生命的泥沼……</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>['十三岁', '年春末', '初度', '见到', '墨索里尼', '英法', '宣战', '取得', '人命', '第一辆', '脚踏车', '撩著', '波浪状', '黑亮', '秀发', '穿著', '入时', '短裙', '丝袜', '踏著', '充沛', '情欲', '蛊惑', '高跟鞋', '到达', '西西里岛', '僻静', '阳光', '小镇', '一举一动', '引人瞩目', '设想', '汉子', '心醉', '女人', '羡妒', '莲娜', '女神', '屈服', '海滨', '天国', '乐园', '年仅', '雷纳', '不由自主', '地掉', '掀翻', '旋涡', '之中', '年事', '较大', '青少年', '一块', '骑著', '单车', '穿梭', '四周', '征采', '著玛', '诱人', '丰姿', '万种风情', '悄悄地', '成为', '不知情', '尾随', '出入相随', '偷窥', '生存', '摆荡', '倩影', '倾听', '音乐', '贴身', '衣服', '荷尔蒙', '歼灭', '少年', '的确', '优美', '妄图', '透过', '看到', '越来越', '暗中', '境遇', '变成', '孀妇', '镇民', '眼中', '不折不扣', '祸水', '带来', '淫欲', '吃醋', '忿怒', '一股', '同化', '激怒', '风暴', '袭卷', '交兵', '未始', '侵吞', '一步步', '堕落', '父亲', '屏绝', '关系', '法院', '失却', '全豹', '家当', '历来', '天真', '世事', '雷纳多', '被动', '面临', '单纯', '人心', '横暴', '冷酷', '看著', '一经', '一无所得', '兴起', '不曾有过', '勇气', '决定', '力气', '一种', '难以', '料到', '体例', '匡助', '走出', '泥沼']</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3554,15 +3607,11 @@
           <t>The Truman Show</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
+      <c r="D52" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3601,6 +3650,11 @@
 但他却发现自己怎样也逃不出去。真相其实很残忍。</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>['楚门', '凯瑞', '寻常', '不能', '别致', '履历', '之外', '初恋女友', '倏地', '失散', '溺水', '身亡', '父亲', '倏忽', '仿佛', '产生', '刻下', '绝大多数', '多岁', '美国', '汉子', '绝无', '不同', '这令', '倍感', '丧失', '试过', '摆脱', '生存', '多年', '位置', '总因', '各种', '源由', '成行', '直到', '发明', '跟踪', '干什么', '事务', '这种', '感受', '愈来愈', '刚烈', '决定', '不惜一切', '代价', '逃离', '寻找', '但他却', '发现自己', '逃不出', '底细', '其实', '凶横']</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3616,15 +3670,11 @@
           <t>엽기적인 그녀</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3660,6 +3710,11 @@
         <is>
           <t>牵牛（车太贤饰）第一次与她（全智贤饰）邂逅，就毫无浪漫感可言。在地铁上她就语出惊人，喝的醉醺醺的她大声训斥不自觉给老人让座的人，吐完之后就软趴趴地倒了下来。善良的牵牛上前接住，于是就只好背着她到旅馆投宿了。但是好心不一定有好报，牵牛正在好好洗澡时就被冲进来的警察带走了。
 然而这两个人却从此开始约会了。她很霸道很任性，然而当她用那张可爱的面孔对着你笑时，你也忍不住心软。于是牵牛也心甘情愿地被她折磨。渐渐的，牵牛感觉到她的内心受伤了，他用尽全力去呵护去保护，她仍然缺乏安全感。虽然在一起很快乐也很感动，她却仍然提出了一个难以接受的约定：让我们先分开吧……</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>['牵牛', '车太贤', '第一次', '全智贤', '相逢', '毫无', '汗漫', '可言', '地铁', '语出惊人', '醉醺醺', '大声', '申斥', '自发', '白叟', '让座', '之后', '趴地', '下来', '和善', '上前', '只好', '背着', '客栈', '寄宿', '善心', '一定', '正在', '好好', '洗澡时', '冲进来', '捕快', '带走', '两个', '今后', '约会', '野蛮', '任性', '可人', '脸孔', '不由得', '心软', '心悦诚服', '地被', '折磨', '慢慢', '感受', '内心', '受伤', '尽全力', '呵护', '保卫', '仍旧', '单调', '安全感', '一块', '康乐', '冲动', '建议', '难以', '担当', '商定', '分开']</t>
         </is>
       </c>
     </row>
@@ -3677,15 +3732,11 @@
           <t>西遊記第壹佰零壹回之月光寶盒</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D54" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3721,6 +3772,11 @@
         <is>
           <t>孙悟空（周星驰）护送唐三藏（罗家英）去西天取经路上，与牛魔王合谋欲杀害唐三藏，并偷走了月光宝盒，此举使观音萌生将其铲除心思，经唐三藏请求，孙悟空被判五百年后重新投胎做人赎其罪孽。
 五百年后孙悟空化身强盗头头至尊宝。当遇见预谋吃唐僧肉的妖怪姐妹蜘蛛精春三十娘（蓝洁瑛）和白骨精白晶晶（莫文蔚）时，因为五百年前孙悟空曾与白晶晶有过一段恋情，至尊宝与她一见钟情，但因菩提老祖将二人妖怪身份相告，至尊宝仍带领众强盗开始与二妖展开周旋，过程中，白晶晶为救至尊宝打伤春三十娘，自己也中毒受伤，为了救白晶晶，至尊宝去找春三十娘，遭白晶晶误会，绝望自杀，至尊宝开始用月光宝盒以期使时光倒流。</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>['孙悟空', '周星驰', '护送', '唐三藏', '罗家英', '西天', '取经', '路上', '牛魔王', '协谋', '摧残', '偷走', '月光宝盒', '此举', '观音', '萌发', '取消', '心境', '申请', '被判', '五百年', '从头', '投胎', '做人', '赎其', '罪孽', '化身', '匪贼', '主脑', '至尊宝', '碰见', '预谋', '唐僧肉', '妖怪', '姐妹', '蜘蛛精', '三十', '蓝洁瑛', '白骨精', '白晶晶', '莫文蔚', '有过', '一段', '恋情', '一拍即合', '菩提', '老祖', '二人', '身份', '相告', '元首', '伸开', '争持', '经过', '打伤', '中毒', '受伤', '误会', '扫兴', '寻短见', '以期', '时光倒流']</t>
         </is>
       </c>
     </row>
@@ -3738,15 +3794,11 @@
           <t>The Butterfly Effect</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D55" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8.9</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3782,6 +3834,11 @@
         <is>
           <t>伊万（艾什顿·库奇AshtonKutcher饰）曾经有一个糟糕的童年，因为他行为闯下了大祸，令他童年充满不堪回忆的往事。而事实上，他确实只是依稀记得一点可怕的情景，这些情景一直纠缠着他的正常生活。伊万接受心理学家建议，把琐碎生活记在记事本里，却偶然发现通过记事本回到过去。
 这时他才清楚记起，童年时候的自己做了那么多的错事。他幻想着用现在的意识，潜入童年的身体，去弥补种种过失给人们带来的伤害，尤其是希望与当年暗恋的凯西最终走回一起。然而他一次次的跨越时空的更改，只能越来越招致现实世界的不可救药。一切就像蝴蝶效应般，牵一发而动全身。</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['伊万', '艾什', '库奇', '也曾', '倒霉', '童年', '手脚', '闯下', '大祸', '充沛', '不堪', '印象', '往事', '事实上', '如实', '依稀记得', '一丝', '可怕', '地步', '纠结', '寻常', '生存', '担当', '心理学家', '倡议', '琐屑', '记在', '记事本', '偶尔', '发掘', '回到', '已往', '懂得', '错事', '妄图', '如今', '意志', '深入', '形骸', '增加', '各种', '误差', '人们', '带来', '中伤', '加倍', '但愿', '从前', '暗恋', '凯西', '最后', '一块', '一次次', '超出', '时空', '更动', '只可', '越来越', '导致', '实际', '世界', '不可收拾', '蝴蝶效应', '牵一发而动全身']</t>
         </is>
       </c>
     </row>
@@ -3795,15 +3852,11 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D56" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3842,6 +3895,11 @@
 重逢后的二人关系进一步发展，此时的易先生因爱上了王佳芝而对她毫无忌讳，王佳芝的内心也变得起伏不定。刺杀行动进行正顺利，但当易先生送给王佳芝璀璨钻戒表达爱意时，王佳芝做出了惊人的决定……</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>['本是', '岭南大学', '学徒', '王佳芝', '汤唯饰', '交兵', '曲折', '香港', '念书', '香港大学', '出席', '爱国', '后生', '裕民', '王力宏', '机构', '剧组', '主演', '话剧', '激发', '情操', '得悉', '伪政府', '密探', '头头', '先生', '梁朝伟', '正在', '密谋', '刺杀', '假名', '内助', '很快', '取得', '陈冲', '信任', '喜欢', '倩丽', '吸引', '眼球', '合法', '事务', '举行', '如日中天', '之际', '倏地', '回到', '上海', '尔后', '生存', '没想到', '重遇', '行为', '完结', '再次', '成为', '身份', '产生', '眼前', '邂逅', '二人', '关系', '进一步', '兴盛', '此时', '因爱上', '毫无', '忌讳', '内心', '变得', '起伏不定', '成功', '当易', '送给', '瑰丽', '钻戒', '表明', '爱意', '做出', '惊人', '决定']</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3857,15 +3915,11 @@
           <t>Transformers</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D57" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3901,6 +3955,11 @@
         <is>
           <t>“霸天虎”的先遣部队旋风和毒蝎袭击了美军位于卡塔尔的军事基地，与此同时，路障帮助他的搭档迷乱潜入了美国总统的座机空中一号，通过电脑获悉，要想找到威震天就必须找到维特维奇家族的那副眼镜，上面有威震天关于能量块的信息扫描，而它现在的拥有者萨姆·维特维奇（希安·拉博夫饰）成为了“霸天虎”攻击的目标。
 萨姆是名高中生，学校里没有人相信他讲述的关于这副眼镜的历史，失望之余，萨姆把眼镜放到网上拍卖，然而从未引起买家的兴趣。这时父亲送了一辆破车给他，这辆车恰好就是“汽车人”大黄蜂的变形。大黄蜂帮助萨姆交上了漂亮的女朋友（梅甘·福克斯饰），但很快就遭遇了“霸天虎”的袭击，擎天柱带着其他“汽车人”赶到，一场机器人大战由此拉开了序幕。</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>['霸天虎', '先遣部队', '旋风', '毒蝎', '冲击', '美军', '位于', '卡塔尔', '军事基地', '路障', '匡助', '伙伴', '睡觉', '深入', '美国', '元首', '座机', '空中', '一号', '电脑', '得知', '找到', '威震', '必得', '维特', '维奇', '家属', '眼镜', '上头', '力量', '信息', '扫描', '如今', '拥有者', '萨姆', '希安', '拉博夫饰', '成为', '打击', '方向', '高中生', '学宫', '没有', '信任', '报告', '历史', '失望', '放到', '网上', '拍卖', '从未', '导致', '买家', '乐趣', '父亲', '一辆', '破车', '这辆', '刚巧', '汽车', '大黄蜂', '变形', '交上', '标致', '女朋友', '梅甘', '福克斯', '很快', '碰到', '擎天柱', '赶到', '机器人', '大战', '由此', '拉开', '序幕']</t>
         </is>
       </c>
     </row>
@@ -3914,15 +3973,11 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D58" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3958,6 +4013,11 @@
         <is>
           <t>1940年代的上海，自小受尽欺辱的街头混混阿星（周星驰）为了能出人头地，可谓窥见机会的缝隙就往里钻，今次他盯上行动日益猖獗的黑道势力“斧头帮”，想借之大名成就大业。
 阿星假冒“斧头帮”成员试图在一个叫“猪笼城寨”的地方对居民敲诈，不想引来真的“斧头帮”与“猪笼城寨”居民的恩怨。“猪笼城寨”原是藏龙卧虎之处，居民中有许多身怀绝技者（元华、梁小龙等），他们隐藏于此本是为远离江湖恩怨，不想麻烦自动上身，躲都躲不及。而在观战正邪两派的斗争中，阿星逐渐领悟功夫的真谛。</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>['岁月', '上海', '自小', '受尽', '欺负', '街头', '流氓', '阿星', '周星驰', '佼佼不群', '可谓', '窥见', '契机', '漏洞', '往里', '今次', '盯上', '行为', '日益', '招摇', '黑道', '势力', '斧头帮', '台甫', '功劳', '伟业', '假充', '成员', '试图', '猪笼', '城寨', '位置', '住户', '勒索', '不想', '引来', '果真', '恩仇', '盘虬卧龙', '中有', '身怀绝技', '元华', '梁小龙', '规避', '此本', '离开', '江湖', '费事', '主动', '上身', '不及', '观战', '正邪', '两派', '博斗', '逐步', '意会', '光阴', '真义']</t>
         </is>
       </c>
     </row>
@@ -3971,15 +4031,11 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
+      <c r="D59" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.4</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4015,6 +4071,11 @@
         <is>
           <t>在一次全国自行车锦标赛上，倒霉的职业车手耿浩（黄渤饰）以0.01秒的微弱差距败给撞到狗屎运的对手，屈居亚军，随后他又遭奸商李法拉（九孔饰）算计，因药检呈阳性而被终身禁赛，他的教练（马少骅饰）因此气倒。
 多年后，耿浩靠开车运送水产为生，养活中风的教练，而当年的骗子李法拉则依靠其推销的补品“肾白银”大发其财。李嫌弃彪悍魁梧的老婆，因此雇用两个业余杀手（王双宝&amp;巴多饰）杀妻，结果杀手反被老婆买通；耿浩的教练急火攻心，一命呜呼，耿浩遵照师傅遗愿前去找李法拉讨说法，谁知反中了李的奸计；东海（戎祥饰）所率领的台湾黑帮来到内地和泰国毒贩（WorapojThuantanon饰）做生意，但耿浩和李法拉的争执引来了警车，也搅了他们的好事。原本不相干的几组人马，由于偶然的机缘而上演了连串好戏……</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>['一次', '世界', '自行车', '锦标赛', '不幸', '做事', '车手', '耿浩', '黄渤饰', '弱小', '差异', '败给', '狗屎运', '对手', '屈居亚军', '随后', '奸商', '法拉', '九孔', '推算', '药检', '阳性', '终生', '禁赛', '教员', '马少骅', '气倒', '多年', '耿浩靠', '开车', '运载', '水产', '为生', '养活', '中风', '从前', '骗子', '依托', '倾销', '补品', '白银', '大发', '其财', '厌弃', '彪悍', '肥大', '细君', '招聘', '两个', '业余', '杀手', '王双宝', '巴多饰', '杀妻', '买通', '急火攻心', '一命呜呼', '师傅', '遗嘱', '前去', '讨说法', '反中', '奸计', '东海', '戎祥饰', '引导', '台湾', '黑帮', '到达', '内地', '泰国', '毒贩', '做生意', '但耿浩', '争吵', '引来', '警车', '功德', '其实', '不相干', '几组', '人马', '偶尔', '机会', '上演', '连串', '好戏']</t>
         </is>
       </c>
     </row>
@@ -4032,15 +4093,11 @@
           <t>Jeux d'enfants</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
+      <c r="D60" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.9</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4080,6 +4137,11 @@
 终于十年过去，“Loveme,ifyoudare...”</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>['人问', '敢不敢', '必得', '嬉戏', '原则', '小男孩', '小女孩', '苏菲', '相逢', '孩子', '闹剧', '出色', '铁盒子', '见证', '脏话', '侵扰', '教室', '校长室', '小便', '内衣', '外穿', '两人', '一玩', '十多年', '供认', '相爱', '玛丽', '歌迪亚', '创议', '不同', '四年', '寻事', '内容', '吉约姆', '卡内', '中伤', '恍惚', '逝去', '找到', '举行', '决定', '聘请', '伴娘', '受到', '在于', '婚典', '抛出', '悔婚', '其实', '最最', '亲切', '同伴', '彼此', '最深', '一样', '心痛', '两个', '相约', '再次', '十年', '占有', '家庭', '事业', '如同', '从来', '丢失', '亲热', '生存', '这般', '味如鸡肋', '到底', '已往']</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4095,15 +4157,11 @@
           <t>La vita è bella</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
+      <c r="D61" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.6</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4142,6 +4200,11 @@
 法西斯政权即将倾覆，纳粹的集中营很快就要接受最后的清理，圭多编给儿子的游戏该怎么结束？他们一家能否平安的度过这黑暗的年代呢？</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['犹太', '后生', '圭多', '罗伯托', '贝尼尼', '相逢', '倩丽', '先生', '多拉', '尼可莱塔', '拉斯基', '彬彬有礼', '弯腰', '早安', '公主', '历经', '诸多', '令人', '哭笑不得', '周折', '天遂', '人愿', '两人', '幸福美满', '生存', '一块', '好事多磨', '法西斯', '政权', '儿子', '强行', '送往', '犹太人', '集中营', '没有', '血统', '断然', '同业', '丈夫', '分开', '关押', '明慧', '乐天', '利用', '嬉戏', '奖品', '一辆', '坦克', '康乐', '果真', '纳粹', '阴晦', '之中', '坚苦', '伶仃', '仍旧', '带给', '好多', '趁便', '广播', '存候', '夫妻', '即将', '倾覆', '很快', '就要', '担当', '临了', '整理', '编给', '完结', '一家', '能否', '太平', '度过', '暗中', '岁月']</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4157,15 +4220,11 @@
           <t>葉問</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="D62" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7.8</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4204,6 +4263,11 @@
 几年之后，侵华日军将佛山攻占，叶问同幸存下的乡邻一样，被迫携妻儿移居废屋。生计面前，叶问混在人群争抢去煤矿做苦力的机会，李钊则成为日军翻译官。日军将领三蒲（池内博之饰）是名武痴，他以一袋白米作奖赏，派李钊四处搜寻能打国人在打斗场上与日军切磋，多名昔日武馆馆主及武痴林因此惨死。这将叶问激怒，他走入打斗场。</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>['岁月', '中国武术', '佛山', '今天', '武功', '北方', '武师', '金山', '樊少皇', '率众', '踢馆', '各大', '武馆', '馆主', '手下败将', '之后', '上习', '一身', '技艺', '低调', '设馆', '授徒', '叶问', '甄子丹', '巡捕', '李钊', '林家栋', '好友', '武痴林', '行宇饰', '乡邻', '申请', '夫妻', '张永成', '熊黛林饰', '鼓动', '咏春拳', '以屈求伸', '克服', '树立', '大师傅', '位子', '暗地', '视作', '师傅', '之前', '密友', '清泉', '任达华', '故意', '合开', '纺织厂', '妻子', '爱子', '分开', '资本', '上将', '扶助', '几年', '侵华日军', '攻占', '幸存', '被动', '妻儿', '移居', '废屋', '生涯', '眼前', '人群', '争夺', '煤矿', '挑夫', '契机', '成为', '日军', '翻译官', '将领', '三蒲', '池内', '博之饰', '武痴', '一袋', '白米', '嘉奖', '到处', '征采', '国人', '打斗', '场上', '切磋', '多名', '夙昔', '惨死', '激怒', '走入']</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4215,15 +4279,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
+      <c r="D63" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.4</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4259,6 +4319,11 @@
         <is>
           <t>11度青春系列是由11位当下青年导演中的翘楚执导系列电影短片，由中国电影集团联手优酷网共同出品，汇集最鲜活的青春奋斗力量。
 本片叙述了一对好友肖大宝(肖央饰)和王小帅(王太利饰)人到中年重新登台找回梦想的故事。80年代的他们做过所有那么年纪叛逆少年经历的一切，打架闹事、痴迷迈克尔杰克逊、迷恋校花(于蓓蓓饰)。可物是人非，20多年后曾经的流氓头头肖大宝成为了一名蹩脚的婚庆主持人，当年的模仿王王小帅则成为了一家理发店的小老板。一次偶然的机会，两人偶遇昔日跟班现在电视制片人包小白(韩秋池饰)，鼓动两人参加“欢乐男生”选秀节目。而两人为了重拾当年的梦想决定参赛。一首歌自创《老男孩》让他们回到青春，回到过去，也感动了常年场外所有的观众。</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['芳华', '系列', '当下', '后生', '导演', '俊彦', '执导', '影戏', '短片', '中国电影集团', '联手', '酷网', '共同', '出品', '会集', '水灵', '博斗', '力气', '本片', '叙说', '一双', '好友', '大宝', '肖央饰', '王小帅', '王太利饰', '不惑之年', '从头', '上台', '找回', '妄想', '故事', '岁月', '做过', '全豹', '年事', '反叛', '少年', '履历', '打斗', '肇事', '沉醉', '迈克尔', '杰克逊', '着迷', '校花', '于蓓蓓饰', '时过境迁', '多年', '也曾', '地痞', '主脑', '成为', '一名', '低装', '婚庆', '主持人', '从前', '师法', '一家', '理发店', '店主', '一次', '偶尔', '契机', '两人', '偶遇', '夙昔', '尾随', '如今', '电视', '制片人', '包小白', '韩秋', '池饰', '带动', '加入', '快活', '男生', '选秀', '节目', '重拾', '决定', '参赛', '一首歌', '自创', '男孩', '回到', '已往', '冲动', '常年', '场外', '观众']</t>
         </is>
       </c>
     </row>
@@ -4276,15 +4341,11 @@
           <t>Brokeback Mountain</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D64" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4321,6 +4382,11 @@
         <is>
           <t>美国怀俄明州的西部，沉默寡言的农夫恩尼斯（希斯•莱杰饰）和热情开朗的牛仔杰克（杰克•吉伦希尔饰)一道被派到山上牧羊，那里人迹罕至，他们只有与羊群为伴，生活单调无味。一个天寒地冻的夜晚，在酒精与荷尔蒙的作用下，他们做了“不该做的事情”，也就此他们在断背山上度过了人生中最美好的时光。
 季节性放牧结束，迫于世俗压力，杰克和恩尼斯不舍地与对方分离并各自结婚生子。恩尼斯迎娶了自幼相识的阿尔玛，并有了两个可爱的女儿；杰克到了德州，在妻子露琳家族的扶植下事业顺利，还有了个儿子。虽然彼此真心相应，他们只能每年定期约会。一边知情的阿尔玛痛苦无比，而他们又无法满足一年只有几天的团聚。这时意外发生……</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>['美国', '怀俄明州', '西部', '沉吟不语', '农人', '尼斯', '希斯', '莱杰饰', '激情', '宽阔', '牛仔', '杰克', '吉伦', '希尔', '一起', '山上', '牧羊', '人烟稀少', '羊群', '为伴', '生存', '单调无味', '千里冰封', '夜晚', '实情', '荷尔蒙', '作用', '不该', '事务', '就此', '断背山', '度过', '人生', '优美', '年华', '季节性', '放牧', '完结', '迫于', '世俗', '压力', '不舍', '对方', '分别', '匹配', '生子', '迎娶', '自幼', '了解', '阿尔玛', '两个', '可人', '儿子', '德州', '夫妻', '露琳', '家属', '成立', '事业', '成功', '由衷', '响应', '只可', '每年', '定期', '约会', '一壁', '知情', '疼痛', '无比', '无法', '满意', '一年', '几天', '团员', '不测', '产生']</t>
         </is>
       </c>
     </row>
@@ -4338,15 +4404,11 @@
           <t>Transformers: Revenge of the Fallen</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="D65" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.8</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4385,6 +4447,11 @@
 萨姆在自己室友里奥（雷蒙·罗德里格斯RamonRodriguez饰）和“机器战士”西蒙斯（约翰·托尔托罗JohnTurturro饰）的帮助下，与女友米凯拉根据魔方碎片给萨姆的提示来到了埃及，他们在金字塔里发现了能量源。而此时，霸天虎的军队也赶到了埃及。军方此时有一小队人马也在西荤斯的要求下带着擎天柱的尸体来到了埃及，善恶双方力量在那片金色的沙漠展开了殊死搏斗。</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>['军方', '汽车', '机要', '协作', '安排', '濒临', '作废', '危殆', '从头', '再造', '威震', '红蜘蛛', '引领', '霸天虎', '军队', '密谋', '争夺', '力量', '企图', '地球', '掀翻', '白色恐怖', '此时', '主人公', '萨姆', '希安', '拉博夫', '告别', '相恋', '女友', '凯拉', '梅根', '福克斯', '日思夜想', '大学', '生存', '仿佛', '成功', '一同', '小小的', '魔方', '碎屑', '予以', '某种', '启发', '取得', '信息', '对萨姆', '追击', '擎天柱', '保卫', '弃世', '萨姆受', '感召', '决定', '担负起', '任务', '室友', '里奥', '雷蒙', '罗德里格斯', '呆板', '士兵', '西蒙斯', '约翰', '托尔托', '匡助', '提示', '到达', '埃及', '金字塔', '发掘', '赶到', '小队人马', '哀求', '下带', '尸体', '善恶', '两边', '力气', '那片', '金色', '戈壁', '伸开', '殊死搏斗']</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4400,15 +4467,11 @@
           <t>喜劇之王</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D66" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4443,6 +4506,11 @@
       <c r="L66" t="inlineStr">
         <is>
           <t>尹天仇（周星驰饰）一直醉心戏剧，想成为一名演员，平时除了做跑龙套以外，还会在街坊福利会里开设演员训练班。此时舞小姐柳飘飘在妈妈桑的带领下来到这里要求学做戏，原来柳飘飘有一段非常不愉快的经历，在尹天仇对她指导的过程中，柳飘飘对尹天仇渐生情愫，同时她也成为了夜总会里当红的小姐。尹天仇受到了极多白眼之后，终于得到了大明星鹃姐（莫文蔚饰）的赏识，提携他担演新戏中的男主角，但没想到突然把他的角色换掉了，令他失望不已。在片场当场务的卧底警员（吴孟达饰）身份被识穿，尹天仇阴差阳错的帮忙破了案。之后尹天仇继续活跃在街坊福利会的演员训练班里。</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>['尹天仇', '周星驰', '宠爱', '戏剧', '成为', '一名', '伶人', '平常', '跑龙套', '之外', '还会', '街坊', '福利', '会里', '开设', '训练班', '此时', '密斯', '飘飘', '妈妈', '元首', '下来', '哀求', '做戏', '从来', '一段', '异常', '怡悦', '履历', '向导', '经过', '渐生', '情感', '夜总会', '当红', '受到', '冷眼', '之后', '到底', '取得', '明星', '莫文蔚', '观赏', '提拔', '担演', '新戏', '男主角', '没想到', '倏地', '脚色', '换掉', '失望', '不已', '片场', '就地', '卧底', '巡捕', '吴孟达', '身份', '识穿', '牝鸡无晨', '佐理', '一直', '活泼']</t>
         </is>
       </c>
     </row>
@@ -4460,15 +4528,11 @@
           <t>District 9</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D67" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4504,6 +4568,11 @@
         <is>
           <t>1990年，一艘巨大的飞船出现在地球上空，人们惶恐不安，却又分外好奇。经过一段时间紧张的等待，外星飞船始终没有动静。人类终于小心翼翼靠近它，强行走进舱内，结果发现了不计其数的外星人。他们形容丑陋，宛如虾子，而且健康状况极差，虚弱无力。原来这是一群来自外星的难民，他们最终被地球人接纳，并隔离在南非约翰内斯堡的一片区域内生活，此地名为“第九区”。经过长达20年的繁衍，外星难民的数量扩张至180万之多，且和周边人类的矛盾冲突不断，越来越多的人类呼吁将“大虾”赶出地球。
 MNU（列国同盟组织）经过磋商，决定将外星难民迁移到更为偏远的区域。MNU外星事务部门的特工威库斯（SharltoCopley饰）专门负责搬迁工作。威库斯在动员过程中傲慢随意，与当地居民冲突频频。最终，他为自己的行为付出代价，外星人的神秘流体将其感染，威库斯慢慢变成了外星人的模样……</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>['一艘', '宏伟', '飞船', '产生', '地球', '上空', '人们', '寝食不安', '出格', '奇怪', '一段时间', '危殆', '恭候', '外星', '始终', '没有', '动态', '人类', '到底', '一丝不苟', '围聚', '强行', '走进', '舱内', '发掘', '不一而足', '外星人', '刻画', '丑恶', '如同', '虾子', '健康状况', '极差', '薄弱', '无力', '从来', '这是', '一群', '来自', '遗民', '最后', '回收', '远隔', '南非', '约翰内斯堡', '一派', '区域', '生存', '此地', '名为', '第九', '生息', '数目', '增加', '万之多', '周边', '冲突', '冲破', '不息', '越来越', '号召', '大虾', '列国', '合作', '机构', '啄磨', '决定', '迁徙', '更为', '偏僻', '事件', '部分', '特务', '库斯', '专门', '承当', '搬场', '事业', '动员', '经过', '倨傲', '大意', '外地', '住户', '屡次', '手脚', '付出代价', '机密', '流体', '劝化', '徐徐', '变成', '姿态']</t>
         </is>
       </c>
     </row>
@@ -4521,15 +4590,11 @@
           <t>Nuovo Cinema Paradiso</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D68" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4569,6 +4634,11 @@
 30年后，阿尔弗雷多去世，此时的托托已经是功成名就的导演，他回到了家乡，看到残破的天堂电影院，追忆往昔，唏嘘不已。</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>['意大利', '南部', '小镇', '古灵精怪', '小男孩', '托托', '瓦特', '卡西欧', '喜好', '影戏', '放映师', '阿尔弗雷', '菲利浦', '诺瓦', '雷饰', '放电影', '成为', '布衣之交', '胶片', '找到', '童年', '生存', '乐趣', '善心', '观众', '看到', '一次', '露天电影', '着火', '火海', '中救', '出来', '双目失明', '唯一', '代替', '多成', '马克', '莱昂', '纳蒂饰', '慢慢', '长大', '银行家', '儿子', '莲娜', '阿格', '妮丝', '那诺饰', '初恋', '清洁', '情感', '美如', '天国', '一双', '情侣', '海枯石烂', '父亲', '滞碍', '间隔', '服兵役', '去念', '大学', '伤心', '鼓动', '摆脱', '寻找', '人命', '妄想', '丧生', '此时', '一经', '功成名就', '导演', '回到', '乡里', '残破', '电影院', '忆往昔', '唏嘘', '不已']</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4584,15 +4654,11 @@
           <t>志明與春嬌</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
+      <c r="D69" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7.9</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4629,6 +4695,11 @@
         <is>
           <t>一纸戒烟令让狭窄的后巷成为新型社交区域，无数抽数的男男女女不得不躲进那里抽烟。无论身居何位，所为何事，在那里他们都只是一个烟民，大家所做的无非是一起吞云吐雾、一起科插打诨。来自广告公司的志明（余文乐饰）和在化妆品专柜工作的春娇（杨千嬅饰）在那里相识，志明的不幸遭遇以及为春娇点烟的举动让春娇对这个斯文的男人略生好感。在接下来的几个日日夜夜，两人不时的传送短信和相约街角吸烟。感情通过拇指传送，爱情在烟雾之中滋生，最终一条暧昧的短信导致春娇和男友家豪（黄德斌饰）分手。就当春娇准备全身心投入与志明的恋情时，志明的态度却变得含混不清。烟雾继续在街角后巷萦绕，但却不能弥合二人之间出现的隔阂。伴随着增加烟草税的决意颁发，广大烟民们开始搜寻和囤积香烟。在寻烟过程中，志明和春娇在他们第一次遇见的便利商店重逢，这晚，两人相约一起去找烟……
 本片在五个星期15个拍摄日便完成拍摄，拍摄时间相当短。由于粗口写实镜头过火，《志明和春娇》在香港上映时被定为三级片。</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>['一纸', '戒烟', '渺小', '后巷', '成为', '新型', '应酬', '区域', '多数', '抽数', '男男女女', '不得不', '躲进', '吸烟', '身居', '何位', '何事', '烟民', '各人', '无非', '一块', '吞云吐雾', '科插', '取笑', '来自', '广告公司', '志明', '余文乐', '化妆品', '专柜', '事业', '春娇', '杨千嬅', '了解', '不幸遭遇', '为春娇', '点烟', '举动', '幽雅', '汉子', '略生', '好感', '接下来', '几个', '成日成夜', '两人', '不断', '传送', '短信', '相约', '街角', '情愫', '拇指', '恋爱', '烟雾', '之中', '孳生', '最后', '一条', '含混', '导致', '男友', '家豪', '黄德斌饰', '仳离', '当春娇', '企图', '全身心', '参加', '与志明', '恋情', '作风', '变得', '含混不清', '一直', '围绕', '不能', '弥合', '二人', '之间', '产生', '倾轧', '伴同', '填补', '烟草', '决定', '公布', '宽广', '征采', '囤积', '纸烟', '寻烟', '经过', '第一次', '碰见', '便利商店', '邂逅', '这晚', '本片', '五个', '星期', '拍摄', '告竣', '年华', '异常', '粗口', '写实', '镜头', '过分', '香港', '上映', '定为', '三级片']</t>
         </is>
       </c>
     </row>
@@ -4646,15 +4717,11 @@
           <t>Mr. &amp; Mrs. Smith</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="D70" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7.8</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4690,6 +4757,11 @@
         <is>
           <t>约翰（布拉德•皮特BradPitt饰）和简（安吉丽娜•朱莉AngelinaJolie饰）已经结婚了7年多，生活就像淡水般无味。婚姻就像坟墓，让他们过着死水一潭的生活。然而这仅仅是表象。背后他们各有刺激惊险的职业——约翰和简分属两个不同的秘密杀手机构，但彼此却不知道对方的职业身份。直到他们同时接到一个任务，刺杀目标竟是同一人。身份的真相才开始慢慢揭开。
 反复的试探和猜测，简终于不小心说穿了自己身份。于是一场同室操戈不可避免的发生了。但是他们也开始意识到，自己只是组织的一个棋子。而眼前的，是共同生活了7年的爱人。</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>['约翰', '布拉德', '皮特', '安吉丽娜', '朱莉', '一经', '匹配', '生存', '淡水', '乏味', '婚姻', '坟墓', '死水一潭', '仅仅', '现象', '反面', '各有', '刺激', '危险', '做事', '分属', '两个', '不同', '机要', '杀手', '机构', '明晰', '对方', '身份', '直到', '接到', '义务', '刺杀', '方向', '竟是', '同一', '底细', '徐徐', '揭开', '再三', '摸索', '料到', '到底', '仔细', '说穿', '兄弟阋墙', '不可避免', '产生', '意志', '棋子', '刻下', '共同', '情人']</t>
         </is>
       </c>
     </row>
@@ -4703,15 +4775,11 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
+      <c r="D71" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.6</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4747,6 +4815,11 @@
         <is>
           <t>《非诚勿扰2》豆瓣官方小站：http://site.douban.com/108514/
 在秦奋（葛优饰）全然做好与笑笑（舒淇饰）白头到老的准备之时，笑笑对秦奋的感情却仅仅止步于好感。在秦奋好友李香山（孙红雷饰）和芒果（姚晨饰）离婚典礼的启发下，秦奋与笑笑决定试婚。然而，好感毕竟不等同于爱情，共同生活期间，秦奋深沉的爱意在笑笑那边却变成无形的压力，两个最后只能分道扬镳。距离远了，感情似乎也就淡了，就在两人似乎已经忘记对方的时候，他们生活的轨迹又一次发生重合。老友李香山罹患重症，在他的人生告别会上，秦奋和笑笑再次相遇，在即将离世的老友点化下，笑笑似乎明白了婚姻的真谛……</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>['非诚', '勿扰', '豆瓣', '官方', '小站', '秦奋', '葛优', '全然', '做好', '笑笑', '舒淇', '白头偕老', '企图', '情愫', '仅仅', '停步', '好感', '好友', '香山', '孙红雷', '芒果', '姚晨饰', '分手', '仪式', '劝导', '决定', '试婚', '到底', '等同于', '恋爱', '共同', '生存', '时候', '沉重', '爱意', '变成', '无形', '压力', '两个', '临了', '只可', '分路扬镳', '距离远', '仿佛', '两人', '一经', '忘怀', '对方', '轨迹', '一次', '产生', '重合', '罹患', '重症', '人生', '告别', '会上', '再次', '相逢', '即将', '离世', '点化', '明显', '婚姻', '真义']</t>
         </is>
       </c>
     </row>
@@ -4764,15 +4837,11 @@
           <t>The Godfather</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
+      <c r="D72" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9.300000000000001</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4812,6 +4881,11 @@
 血雨腥风和温情脉脉，在这部里程碑式的黑帮史诗巨片里真实上演。</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>['岁月', '美国', '教父', '维托', '里昂', '马龙', '白兰度', '黑手党', '家属', '头头', '元首', '从事', '违法', '勾当', '幼弱', '子民', '保护伞', '深得', '人们', '爱慕', '圮绝', '毒枭', '索洛索', '毒品', '交往', '哀求', '纽约', '几个', '矛盾激化', '圣诞', '前夕', '劫持', '参谋', '汤姆', '密谋', '内奸', '出卖', '大儿子', '逊尼', '仇人', '摧残', '小儿子', '麦克', '阿尔', '帕西诺', '进入', '失却', '妻子', '之间', '冲突', '越来越', '尖锐化', '大哥', '面临', '丧子', '之痛', '统治', '全体', '仇杀', '落幕', '可能', '成为', '新一代', '血流漂杵', '柔情脉脉', '这部', '里程碑式', '黑帮', '史诗', '巨片', '的确', '上演']</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4827,15 +4901,11 @@
           <t>リリイ·シュシュのすべて</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
+      <c r="D73" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.9</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4871,6 +4941,11 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>莲见雄一（市原隼人饰）与母亲、继父、弟弟生活在一个幽静的小城里。他跟同班同学星野修介（忍成修吾饰）同在剑道部，两人成为好朋友。星野本来是一个品学兼优的学生，却遭到了同学的嫉妒。当暑假时一群同学自冲绳回来以后，星野变了一个人似的。接着星野开始以欺负同学为乐，而且手段残忍，雄一也不能幸免。雄一性格孤僻，喜欢歌手莉莉周，在自己建立的莉莉周论坛上他认识了一个叫“青猫”的人。雄一与青猫都过着不容易的生活，两人互相鼓励，并约定在莉莉周的演唱会上见面，“青猫”的出现令雄一十分惊讶。</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['莲见雄', '市原', '人饰', '母亲', '继父', '弟弟', '生存', '和平', '城里', '同班同学', '星野', '修介', '成修吾', '道部', '两人', '成为', '同伴', '原本', '品学兼优', '学徒', '遭到', '同学', '吃醋', '暑假', '一群', '冲绳', '回归', '从此', '期凌', '为乐', '办法', '凶横', '雄一', '不能', '幸免', '性情', '孤介', '喜好', '歌手', '莉莉', '创建', '论坛', '理解', '青猫', '便利', '互相', '鼓动', '商定', '演唱会', '会面', '产生', '令雄', '万分', '好奇']</t>
         </is>
       </c>
     </row>
@@ -4888,15 +4963,11 @@
           <t>Black Swan</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D74" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8.6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4931,6 +5002,11 @@
       <c r="L74" t="inlineStr">
         <is>
           <t>纽约剧团要重排《天鹅湖》，因前领舞Beth（薇诺娜•赖德WinonaRyder饰）离去，总监Thomas（文森特•卡索尔VincentCassel.饰）决定海选新领舞，且要求领舞要分饰黑天鹅与白天鹅。Nina（娜塔莉•波特曼NataliePortman饰）自幼练习芭蕾舞，在母亲的细心关照下，技艺出众。这次，她希望可以脱颖而出。然而，在竞争中，她发现心机颇重的Lily（米拉•库妮丝MilaKunis饰）是自己的强劲对手。在选拔中，她的白天鹅表演的无可挑剔，但是黑天鹅不及Lily。她感到身心俱疲，回家还发现了背部的红斑与脚伤。她一个人找到总监，希望争取一下。总监趁机亲吻她，却被她强硬拒绝。结果，总监居然选了她。队友怀疑她靠色相上位。在酒会上，Beth甚至当众发泄。这种压力外加伤病，一直影响着她的发挥。总监启发她要释放激情，表现出黑天鹅的诱惑。在强大的心理暗示中，她似乎也滑向了黑天鹅的角色……</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['纽约', '剧团', '重排', '天鹅湖', '因前', '领舞', '薇诺娜', '赖德', '告辞', '总监', '文森特', '索尔', '决定', '海选', '哀求', '分饰', '黑天鹅', '白天鹅', '娜塔莉', '波特曼', '自幼', '演习', '芭蕾舞', '母亲', '留神', '关心', '技能', '出众', '此次', '但愿', '崭露头角', '比赛', '发掘', '心思', '颇重', '米拉', '妮丝', '健壮', '对手', '提拔', '献技', '无可挑剔', '不及', '感到', '身心俱疲', '回家', '背部', '红斑', '脚伤', '找到', '争取', '一下', '趁便', '亲吻', '刚毅', '圮绝', '公然', '队友', '可疑', '色相', '上位', '酒会', '当众', '发泄', '这种', '压力', '外加', '伤病', '作用', '发扬', '劝导', '开释', '亲热', '线路', '蛊惑', '宏大', '暗意', '仿佛', '滑向', '脚色']</t>
         </is>
       </c>
     </row>
@@ -4944,15 +5020,11 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="D75" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8.1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4991,6 +5063,11 @@
 这边坠桥的“接头人”撞上了马冰（邓超饰）和菲菲（王柠饰）的车头身亡，马冰和菲菲不由自主地牵扯到这宗命案里。正好被逮捕裘家兄弟的警察叶倾城（张涵予饰）和李米发现了方文的踪迹——马冰和方文长得一模一样！只是马冰对于李米的相认十分淡漠，李米等了四年的，竟是这样一个结局吗？叶倾城亦开始怀疑马冰的真实身份。</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['出租车', '司机', '李米', '迅饰', '嘴里', '叨叨', '机密', '数字', '乘客', '回复', '问题', '见过', '汉子', '男友', '方文', '一经', '失散', '四年', '一直', '写信', '告知', '现状', '不到', '恋人', '像片', '杂志', '识别', '每天', '生存', '极大', '折磨', '这天', '一双', '云南', '昆明', '恭候', '交往', '毒贩子', '裘水天', '王宝', '强饰', '火贵', '毒贩', '发掘', '商量', '岂有此理', '坠桥', '而亡', '惊恐', '失措', '碰见', '回头', '找钱', '仓猝', '上车', '企图', '抢回', '吃亏', '款项', '回老家', '使用', '时机', '报警', '随后', '委派', '寻找', '初恋', '小香', '放走', '马冰', '邓超饰', '和菲菲', '王柠饰', '车头', '身亡', '不由自主', '牵扯', '这宗', '命案', '恰好', '拘押', '裘家', '伯仲', '捕快', '叶倾城', '张涵', '予饰', '萍踪', '方文长', '一成不变', '相认', '万分', '冷落', '竟是', '完结', '可疑', '的确', '身份']</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5006,15 +5083,11 @@
           <t>Finding Nemo</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+      <c r="D76" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8.5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5050,6 +5123,11 @@
       <c r="L76" t="inlineStr">
         <is>
           <t>在澳洲大堡礁的深海中，小丑鱼爸爸玛林和儿子尼莫简单幸福的生活着，可是爸爸做事常常畏首畏尾，是个胆小鬼，尼莫觉得爸爸很不勇敢，甚至有点看不起自己的爸爸。小尼莫却天不怕地不怕，跟同伴们去水面玩耍的时候，竟然被渔网捞了起来，辗转被卖到一家牙医诊所。玛林对儿子的生死未卜感到十分的担忧，就算平时不能大胆行事，为了儿子也要勇敢豁出去了。可是在路上遇到了很多艰难与恐惧，令他十分胆怯。幸好他遇到了好心的多瑞，一路与他作伴。父子俩都遇到了很多热心的帮助，最终都能重逢，玛林也从此成为儿子以及大家心中的英雄。</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['澳洲', '大堡礁', '深海', '小丑鱼', '爸爸', '玛林', '儿子', '尼莫', '扼要', '华蜜', '生存', '任务', '一再', '犹豫不决', '懦夫', '感觉', '勇敢', '有点', '歧视', '天不怕地', '同伙', '水面', '嬉戏', '果然', '渔网', '起来', '曲折', '一家', '牙医', '诊所', '生死未卜', '感到', '万分', '忧郁', '就算', '平常', '不能', '行事', '豁出去', '路上', '碰到', '好多', '坚苦', '哆嗦', '害怕', '亏得', '善心', '多瑞', '一同', '作伴', '父子俩', '情切', '匡助', '最后', '邂逅', '今后', '成为', '各人', '心中', '俊杰']</t>
         </is>
       </c>
     </row>
@@ -5067,15 +5145,11 @@
           <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D77" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5114,6 +5188,11 @@
 在打斗中，威尔和杰克发现，巴尔巴罗萨和他的海盗们身背着咒语，在每一个月光之夜，他们就变成了不死骷髅，而伊莉莎白正是解开咒语的关键。</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>['故事', '产生', '世纪', '传奇', '海盗', '最为', '活泼', '加勒比海', '兴趣', '迷人', '杰克', '斯伯洛', '约翰尼', '德普', '占有', '属于', '黑珍珠', '海盗船', '来说', '惬意', '生存', '驾驶', '浪荡', '悠闲自在', '侵掠', '过往船只', '不幸', '仇人', '深谋远虑', '巴尔', '巴罗萨', '船主', '杰弗里', '拉什', '偷走', '巴伯', '萨是', '作恶多端', '坏人', '强抢', '加倍', '嚣张', '倒行逆施', '一时', '成为', '全盘', '霸主', '一次', '一伙', '冲击', '罗亚尔港', '小镇', '勒索', '总督', '儿子', '伊莉莎白', '斯万', '凯拉', '奈特', '竹马之交', '铁匠', '学徒', '威尔', '特纳', '奥兰多', '布鲁姆', '处心积虑', '救出', '狱中', '英国皇家', '舰队', '最快', '拦截', '兵舰', '急速', '打斗', '发掘', '身背', '咒语', '月光', '之夜', '变成', '骷髅', '恰是', '解开', '关头']</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5129,15 +5208,11 @@
           <t>Lola rennt</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="D78" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5176,6 +5251,11 @@
 考验罗拉爱情的时候到了，为了在20分钟内筹到10万马克，救出曼尼，她狂奔在向银行家父亲求助的路上。</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['罗拉', '弗兰卡', '波滕特饰', '曼尼', '莫里兹', '克雷多饰', '一双', '年轻', '恋人', '曼尼是', '不务正业', '小混混', '信任', '天大', '事务', '恋爱', '至上', '主义者', '曼尼为', '大哥', '告竣', '一项', '钻石', '交往', '装有', '万马克', '荷包', '守候', '接应', '自行车', '抢走', '延误', '商定', '年华', '只好', '地铁', '且归', '车厢', '曼尼扶起', '身边', '乞丐', '望见', '两名', '捕快', '走来', '惊惶', '曼尼下', '果然', '彰彰', '拿走', '此时', '距离', '会面', '交钱', '剩下', '分钟', '之内', '筹集', '不到', '杀死', '穷途末路', '打电话', '求救', '不能', '赶到', '只可', '官逼民反', '强抢', '电话亭', '劈头', '超市', '磨练', '筹到', '救出', '决骤', '银行家', '父亲', '告急', '路上']</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5191,15 +5271,11 @@
           <t>射鵰英雄傳之東成西就</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D79" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -5234,6 +5310,11 @@
       <c r="L79" t="inlineStr">
         <is>
           <t>金轮国王妃（叶玉卿饰）与表哥欧阳锋（梁朝伟饰）有染，为霸占江山，他们毒死了国王，但没找到传国玉玺。得知玉玺在前往九宫山找寻其师父求助的三公主（林青霞饰）手里后，欧阳锋企图抢到手但没成功。糊涂国师（张曼玉饰）在淫威下屈服，查出三公主的具体下落，欧阳锋乘火箭金靴追赶，却误脱落一只插死刚出关的王重阳（钟镇涛饰），奄奄一息的王重阳恳求适逢路过的三公主找到其师弟周伯通（刘嘉玲饰）代为报仇。逃到九宫山的三公主邀得师弟黄药师（张国荣饰）与师妹（王祖贤饰）相助，再加上前来寻找表妹的洪七（张学友饰）、找到真心人才能成仙的段智兴（梁家辉饰），一场与欧阳锋的生死恶战蓄势待发……</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['金轮', '国王', '叶玉卿', '表哥', '欧阳锋', '梁朝伟', '有染', '侵吞', '山河', '毒死', '找到', '玉玺', '得悉', '前去', '九宫山', '寻找', '师傅', '告急', '三公主', '林青霞', '手里', '企图', '到手', '告捷', '懵懂', '国师', '张曼玉', '淫威', '屈从', '查出', '全体', '下落', '火箭', '金靴', '追赶', '却误', '脱落', '一只', '插死', '出关', '王重阳', '钟镇涛', '千均一发', '哀求', '刚好', '路过', '师弟', '周伯通', '刘嘉玲', '代为', '忘恩', '邀得', '黄药师', '张国荣', '师妹', '王祖贤饰', '互助', '加上', '前来', '表妹', '洪七', '张学友', '由衷', '人才', '能成仙', '段智兴', '梁家辉', '存亡', '恶战', '蓄势待发']</t>
         </is>
       </c>
     </row>
@@ -5251,15 +5332,11 @@
           <t>(500) Days of Summer</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="D80" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -5294,6 +5371,11 @@
       <c r="L80" t="inlineStr">
         <is>
           <t>来自新泽西的汤姆（JosephGordon-Levitt约瑟夫•高登-莱维特饰）是一个沉溺于英伦哀歌与《毕业生》情境的年轻人。他供职于一家贺卡公司，任务是撰写富有创意的祝辞。某次会议上，汤姆的老板把新助理介绍给大家，她是来自密歇根的魅力女孩莎莫（ZooeyDeschanel佐伊•丹斯切尔饰）。莎莫自幼父母离异，因此对于感情的态度与众不同。汤姆和莎莫没有一见钟情，但却在一次酒吧K歌后彼此示好，成了非典型的恋人。而且这段办公室恋情迅速升温，爱火烧得谁都无法预料。最后，在一个餐馆里，莎莫对汤姆说了绝情的分手。深陷情网的汤姆，经受不住失恋的打击，郁郁寡欢，周围的伙伴们希望帮他走出阴影，然而，这并不是故事的全部，本片以汤姆的视角把时间重新组接，让观众在对比中体味500天恋爱的弦外之音……</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>['来自', '新泽西', '汤姆', '约瑟夫', '高登', '莱维', '特饰', '沉溺于', '英伦', '哀歌', '毕业生', '情境', '年轻人', '任职', '一家', '贺卡', '公司', '义务', '撰写', '宽裕', '创意', '祝辞', '某次', '了解', '店主', '助手', '介绍', '各人', '密歇根', '魅力', '女孩', '佐伊', '斯切尔', '自幼', '父母', '仳离', '情愫', '作风', '不同凡响', '没有', '一拍即合', '一次', '酒吧', '歌后', '示好', '非典型', '恋人', '办公室', '恋情', '急速', '升温', '火烧', '无法', '预想', '临了', '餐馆', '莎莫对', '绝情', '深陷', '情网', '担当', '不住', '失恋', '反击', '愁眉苦脸', '周围', '伙伴', '但愿', '走出', '暗影', '不是', '故事', '全数', '本片', '视角', '年华', '从头', '组接', '观众', '反差', '体会', '恋爱', '字里行间']</t>
         </is>
       </c>
     </row>
@@ -5311,15 +5393,11 @@
           <t>Corpse Bride</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D81" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -5358,6 +5436,11 @@
 在小树林里维克多不但认识了这个女子，还看到这片死人世界一片欢乐和睦的气氛，他被眼前的情景深深感染，畏惧渐渐散去。然而，在两个世界，两个新娘之间，维克多该如何抉择。</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>['维克多', '父母', '儿子', '安排', '婚姻', '未婚妻', '没落', '贵族', '密斯', '维多利亚', '内向', '敏感', '不善', '表明', '婚典', '前夕', '到达', '小树林', '偷偷', '排演', '发誓', '仪式', '不测', '产生', '局限', '套进', '地上', '一根', '树枝', '上头', '惊愕', '发掘', '果然', '变成', '朽败', '手指', '从容不迫', '地动山摇', '刻下', '僵尸', '新妇', '恰是', '身上', '情真意切', '合法', '夫妻', '吃惊', '万分', '徐徐', '得悉', '从来', '佳', '新婚之夜', '丈夫', '到来', '理解', '看到', '这片', '世界', '一派', '快活', '友好', '恼怒', '地步', '深深', '劝化', '怯怯', '慢慢', '两个', '之间', '决定']</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5373,15 +5456,11 @@
           <t>Perfume: The Story of a Murderer</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+      <c r="D82" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -5420,6 +5499,11 @@
 格雷诺耶爱上了青春少女的体香，为了把这种香味保存下来，格雷诺耶最终走上了杀手的道路。</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>['十八世纪', '马普', '蒂斯', '雷诺', '韦肖', '出世', '巴黎', '恶浊', '恶臭', '不堪', '位置', '墟市', '天才', '气味', '有着', '惊人', '先天', '芳醇', '记住', '苟且', '决别', '孤儿', '院长', '皮匠', '耶在', '制皮', '犬马', '生存', '机缘巧合', '香水', '巴尔', '蒂尼', '眼前', '展露', '其过', '加入', '事业', '但格', '不仅仅', '满意', '创造', '世界', '妄想', '学得', '保全', '万物', '办法', '叮嘱', '起源地', '格拉斯', '明晰', '耶拿着', '推荐信', '到达', '耶爱上', '青春少女', '体香', '这种', '香味', '下来', '最后', '走上', '杀手', '途径']</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5435,15 +5519,11 @@
           <t>Juno</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
+      <c r="D83" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.9</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -5479,6 +5559,11 @@
         <is>
           <t>高中生朱诺（艾莲·佩奇EllenPage饰）大大咧咧，是个可爱的精灵鬼，正经历着青春期到成人的蜕变。这一天她突然做出决定：要和帅气的田径队员布里克（迈克尔·塞拉MichaelCera饰）共尝禁果。朱诺这次可闯了大祸，她一不留心竟然珠胎暗结，接下来的麻烦可想而知。
 和布里克谈婚论嫁显然还为时过早，但朱诺并不想堕胎，她和好友商量，决定把孩子生下来，然后交给一对善心的夫妇抚养。然而，父母终究得知了朱诺的秘密，反应并没有朱诺料想的那么糟糕——一家人因为腹中的孩子团结起来，共商计策，为她分担怀孕的点滴苦乐。但是，朱诺毕竟是一个超级年轻的妈妈，小小年龄如何应对这一切，恐怕还要经历一次心灵的蜕变。</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['高中生', '朱诺', '艾莲', '佩奇', '不拘小节', '可人', '机灵', '履历', '青春期', '成人', '改观', '倏地', '做出', '决定', '帅气', '田径', '队员', '布里克', '迈克尔', '塞拉', '共尝', '禁果', '此次', '大祸', '不留心', '果然', '珠胎暗结', '接下来', '费事', '不问可知', '谈婚论嫁', '彰彰', '为时过早', '不想', '人工流产', '好友', '切磋', '儿童', '下来', '交给', '一双', '善心', '匹俦', '供养', '父母', '毕竟', '得悉', '机要', '反应', '没有', '料到', '倒霉', '一家人', '腹中', '团结起来', '共商', '计策', '分担', '妊娠', '点滴', '苦乐', '到底', '超等', '年轻', '妈妈', '小小', '年纪', '应付', '可能', '还要', '一次', '心灵']</t>
         </is>
       </c>
     </row>
@@ -5496,15 +5581,11 @@
           <t>The Social Network</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+      <c r="D84" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -5540,6 +5621,11 @@
         <is>
           <t>2003年秋，哈佛大学。恃才放旷的天才学生马克·扎克伯格（JesseEisenberg饰）被女友甩掉，愤怒之际，马克利用黑客手段入侵了学校的系统，盗取了校内所有漂亮女生的资料，并制作名为“Facemash”的网站供同学们对辣妹评分。他的举动引起了轰动，一度令哈佛服务器几近崩溃，马克因此遭到校方的惩罚。正所谓因祸得福，马克的举动引起了温克莱沃斯兄弟的注意，他们邀请马克加入团队，共同建立一个社交网站。与此同时，马克也建立了日后名声大噪的“Facebook”。
 经过一番努力，Facebook的名气越来越大，马克的财富与日俱增。然而各种麻烦与是非接踵而来，昔日的好友也反目成仇……</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>['年秋', '哈佛大学', '放旷', '先天', '学徒', '马克', '扎克', '伯格', '女友', '抛弃', '义愤', '之际', '使用', '黑客', '办法', '侵犯', '学宫', '体例', '偷盗', '校内', '全豹', '标致', '女生', '原料', '创造', '名为', '网站', '同学', '辣妹', '评分', '举动', '导致', '惊动', '一度', '哈佛', '服务器', '几近', '倒闭', '遭到', '校方', '刑事责任', '所谓', '否极泰来', '克莱', '沃斯', '伯仲', '属意', '聘请', '出席', '团队', '共同', '创建', '应酬', '日后', '名声大噪', '全力', '名望', '越来越', '家当', '一日千里', '费事', '优劣', '川流不息', '夙昔', '好友', '反目成仇']</t>
         </is>
       </c>
     </row>
@@ -5557,15 +5643,11 @@
           <t>Once</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D85" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -5601,6 +5683,11 @@
       <c r="L85" t="inlineStr">
         <is>
           <t>这是一部由音乐开启的爱尔兰电影。　卖花女（MarketaIrglova）被街头艺人（GlenHansard饰）的音乐所吸引，开始了一段荡气回肠的浪漫故事。他们不是王子和公主，各自有着琐碎的生活，但是他们有个共同点，那就是对音乐的热爱。在一次合奏中，他们找到了彼此间惊人的默契。这个发现让他们兴奋，很快他们找到了另外的一个同伴，组成了一个乐队，并通过优秀的表现得到了专业人士的肯定。与此同时，爱情也在逐渐萌芽。音乐是这部电影最大的亮点之一，塑造了极其浪漫唯美的氛围。</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>['这是', '一部', '音乐', '开启', '爱尔兰', '影戏', '卖花女', '街头', '戏子', '吸引', '一段', '惊心动魄', '汗漫', '故事', '不是', '王子', '公主', '有着', '琐屑', '生存', '有个', '共同点', '亲爱', '一次', '合奏', '找到', '彼此间', '惊人', '理解', '发掘', '亢奋', '很快', '同伙', '构成', '乐队', '优异', '线路', '取得', '专业人士', '信任', '恋爱', '逐步', '发芽', '这部', '最大', '亮点', '塑造', '极其', '唯美', '气氛']</t>
         </is>
       </c>
     </row>
@@ -5618,15 +5705,11 @@
           <t>Charlie and the Chocolate Factory</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+      <c r="D86" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5666,6 +5749,11 @@
 五个孩子开始在这个魔幻工厂中冒险，吸引他们的除了神奇壮观的巧克力制造世界之外，还有威利•王卡的“神秘礼物”……</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>['威利', '王卡', '强尼', '戴普饰', '一位', '伟大', '巧克力', '发明人', '制造商', '筹办', '全世界', '最大', '工厂', '机密', '大门', '紧锁', '一直', '没有', '望见', '工人', '进入', '出来', '闻到', '浓厚', '香味', '出产', '旺卡牌', '销往', '世界各地', '深受', '儿童', '喜欢', '旺卡', '先生', '公布', '内里', '埋没', '五张', '金券', '契机', '参观', '取得', '充裕', '一辈子', '巧克力糖', '糖果', '小孩子', '放肆', '抢购', '最后', '五个', '客人', '成为', '幸运儿', '查理', '弗莱迪', '海默饰', '家庭', '异常', '清贫', '履历', '两次', '凋落', '发掘', '临了', '一张', '开启', '奇幻', '冒险', '吸引', '奇妙', '壮丽', '创设', '世界', '之外', '手信']</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5681,15 +5769,11 @@
           <t>Ice Age</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D87" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8.6</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -5725,6 +5809,11 @@
         <is>
           <t>冰河时期降至，动物们都急着迁徙到温暖的地方及储存食物。长毛象曼弗瑞德、树獭希德、剑齿虎迪亚戈为了帮助一个人类的婴儿回到父母身边，因而也掉了动物们迁徙的队伍。三只性格各异的动物，觉得集合力量帮助婴儿。一路上，善良的曼弗瑞德总觉得迪亚戈心怀鬼胎，想吃掉婴儿，互相猜疑。他们一起经历了无数艰难险阻，终于能够真诚相对。
 当剑齿虎迪亚戈的同伴知道它身边正有一个婴儿，饥寒交迫的它们就想迪亚戈把婴儿交给它们当食物，迪亚戈已对可爱的小婴儿产生了感情，无法下手，而迪亚戈该如何选择呢？小婴儿又能否安全回到家中？</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['冰河时期', '动物', '转移', '温和', '位置', '保存', '食品', '长毛象', '弗瑞德', '树獭', '希德', '剑齿虎', '迪亚戈', '匡助', '人类', '婴儿', '回到', '父母', '身边', '军队', '三只', '性情', '例外', '感觉', '纠集', '力气', '一路上', '和善', '居心叵测', '吃掉', '互相', '一伙', '一块', '履历', '多数', '暗礁险滩', '到底', '可能', '朴拙', '相对', '同伙', '明晰', '正有', '啼饥号寒', '交给', '可人', '产生', '情愫', '无法', '下手', '选定', '能否', '和平', '家中']</t>
         </is>
       </c>
     </row>
@@ -5738,15 +5827,11 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
+      <c r="D88" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.9</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5782,6 +5867,11 @@
         <is>
           <t>改革开放初期，黎小军（黎明饰）告别女友小婷（杨恭如饰）从天津（国语版中为无锡）来到香港讨生活，期望有天挣到大钱把小婷接来与之风风光光地成婚，没料想日子会比想象中的难熬许多。
 黎小军在快餐店与同样从大陆到港讨生活但避讳谈自己身份的李翘（张曼玉饰）结识后，因为共同喜爱邓丽君，两人人在异乡的孤独都有了某种程度的缓解，并在交往的过程中生出了真爱，可是世事难料，两人最终无奈分手，黎小军成了小婷的老公，李翘跟了在黑社会做事的豹哥（曾志伟饰）。然而因为邓丽君，两人的缘分并没到此为止。</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>['改革开放', '初期', '黎小军', '破晓', '告别', '女友', '小婷', '杨恭如', '天津', '国语版', '中为', '无锡', '到达', '香港', '讨生活', '期待', '有天', '挣到', '大钱', '接来', '风风光光', '匹配', '料到', '日子', '想象', '难受', '快餐店', '一样', '内地', '忌讳', '身份', '李翘', '张曼玉', '巩固', '共同', '喜欢', '邓丽君', '专家', '外乡', '孤傲', '某种程度', '缓和', '交往', '经过', '生出', '真爱', '世事难料', '两人', '最后', '无奈', '仳离', '黎小军成', '老公', '黑社会', '任务', '豹哥', '曾志伟', '因缘', '到此为止']</t>
         </is>
       </c>
     </row>
@@ -5799,15 +5889,11 @@
           <t>Big Fish</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D89" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5843,6 +5929,11 @@
         <is>
           <t>爱德华（伊万·麦克格雷格EwanMcGregor饰）生性热爱自由，成年之后，他选择离开家乡，踏上了环游世界的旅程。一路上，爱德华遇见了各种各样稀奇古怪的角色，经历了无数精彩绝伦的的冒险，而他日后最大的兴趣，就是向他人喋喋不休的重复讲述他的这一段奇幻旅程。
 威尔（比利·克鲁德普BillyCrudup饰）是爱德华的儿子，他并不相信父亲所讲述的那些光怪陆离的故事，甚至对此感到无比厌烦。婚后，他同父亲中断了联系，一晃眼就是数年过去。当再次得到爱德华的消息之时，威尔才知道父亲即将不久于人世，他决定去见爱德华最后一面。然而，这一次，威尔终于发现了隐藏在这些故事背后的奥秘和真相。</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>['爱德华', '伊万', '麦克', '格雷格', '生性', '亲爱', '自在', '成年', '之后', '选定', '摆脱', '乡里', '踏上', '环游世界', '旅程', '一路上', '碰见', '各式各样', '八怪七喇', '脚色', '履历', '多数', '精妙绝伦', '冒险', '日后', '最大', '乐趣', '呶呶不休', '重叠', '报告', '一段', '奇幻', '威尔', '比利', '克鲁', '德普', '儿子', '信任', '父亲', '光怪陆离', '故事', '对此', '感到', '无比', '厌恶', '婚后', '他同', '中断', '接洽', '一晃眼', '数年', '已往', '再次', '取得', '信息', '明晰', '即将', '不久', '世间', '决定', '临了', '一边', '一次', '到底', '发掘', '规避', '反面', '奇奥', '底细']</t>
         </is>
       </c>
     </row>
@@ -5860,15 +5951,11 @@
           <t>Love Actually</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D90" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8.6</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5910,6 +5997,11 @@
 如此的小故事共有十出，温暖你我的心。</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>['这是', '一出', '爱情故事', '串成', '喜剧', '杂烩', '失却', '母亲', '小男孩', '整天', '愁眉苦脸', '继父', '不知', '劝慰', '得悉', '继子', '喜好', '学宫', '最美', '女孩', '强烈', '鼓动', '儿子', '获', '小女孩', '关切', '专心致志', '演习', '架子鼓', '圣诞节', '晚会', '上能', '同台', '上演', '勇敢', '临了', '一记', '作别', '俊逸', '打破', '机场', '安检', '两个', '儿童', '面临', '婚姻', '危境', '丈夫', '情愫', '出轨', '项链', '送给', '女人', '一张', '亲爱', '女歌手', '借口', '仓猝', '躲入', '卧室', '歌声', '忍耐', '哭泣', '转个', '夸大', '大笑', '娇女', '爱子', '怡悦', '嘴脸', '最后', '幡然醒悟', '故事', '公有', '温和']</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5925,15 +6017,11 @@
           <t>花樣年華</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
+      <c r="D91" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8.699999999999999</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5969,6 +6057,11 @@
         <is>
           <t>1960年代的香港，报馆编辑周慕云（梁朝伟饰）与太太搬进一间住户多是上海人的公寓，和某家日资公司的贸易代表陈先生与太太苏丽珍（张曼玉饰）成了邻居。因为发现各自在外工作的配偶背着他们有了婚外情，周慕云和苏丽珍开始见面商讨未来可能发生的事情以及相应对策。
 起初两人是君子之交淡如水就事谈事，可是日子一日接一日过去后，在周围一帮上海邻居的闲言碎语中，他们发现配偶的事早空出了他们的脑袋，彼此眼里只剩下了对方，而刻意回避已生出的感情的结果，是更加刻骨的相思。</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>['岁月', '香港', '报馆', '剪辑', '周慕云', '梁朝伟', '内助', '搬进', '一间', '住户', '上海', '公寓', '某家', '日资', '公司', '交易', '代表', '陈先生', '苏丽珍', '张曼玉', '邻人', '发掘', '在外', '事业', '妃耦', '背着', '婚外情', '会面', '咨议', '改日', '也许', '产生', '事务', '响应', '对策', '当初', '两人', '君子之交', '谈事', '日子', '一日', '已往', '周围', '一帮', '散言碎语', '早空出', '脑壳', '眼里', '剩下', '对方', '决心', '侧目', '生出', '情愫', '加倍', '刻骨', '相思']</t>
         </is>
       </c>
     </row>
@@ -5986,15 +6079,11 @@
           <t>天空の城ラピュタ</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D92" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -6033,6 +6122,11 @@
 为救朋友，只能选择与海盗合作。巴鲁与海盗成功救出了希达，同时，他们也发现了军方的邪恶计划。为了阻止军方邪恶计划的实施，他们和海盗一起踏上了寻找拉普达之旅。</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>['古老', '帝国', '拉普', '漂流', '空中', '宏伟', '呆板', '传奇', '一经', '无人居住', '蕴含', '家当', '军方', '海盗', '寻找', '这座', '航行', '矿工', '巴鲁', '这天', '偶遇', '继承人', '希达', '两人', '一拍即合', '身上', '关键', '物件', '两帮', '人马', '追杀', '一块', '出亡', '最后', '没有', '逃出', '手中', '军队', '掳走', '同伴', '只可', '选定', '协作', '告捷', '救出', '发掘', '凶恶', '安排', '停止', '奉行', '踏上']</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6048,15 +6142,11 @@
           <t>A Clockwork Orange</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D93" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8.6</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -6092,6 +6182,11 @@
         <is>
           <t>阿利斯（马尔科姆•麦克道尔）是一位无恶不作的少年，他的特殊喜好是边听贝多芬的交响曲边奸淫女性，某次他进入一所别墅抢劫一番后，打残了该别墅的主人——一名小说家，并用特殊喜好蹂躏了其妻子。后来因为杀了一名单身女子，阿利斯入狱并接受了特殊的人格治疗，出狱后，他对淫乐之事产生彻底的厌倦。
 但当阿利斯回到家时，周围人群没改变对他的旧看法，在种种歧视的重压下，他跑到郊外一所别墅想喘口气，不想这所别墅正是他以前抢劫过的小说家的那所。而作为反政府组织首领的该小说家为了达到某种目的，软禁了阿利斯。当这件事暴露小说家被捕时，其手下为了对抗政府，扬言要把阿利斯恢复原来的性情，完全不理一旁的阿利斯大叫“我完全好了”。</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>['阿利斯', '马尔科', '麦克', '道尔', '一位', '作恶多端', '少年', '特别', '喜好', '贝多芬', '交响曲', '奸淫', '女性', '某次', '加入', '一所', '别墅', '强抢', '打残', '主人', '一名', '小说家', '并用', '摧毁', '夫妻', '其后', '光棍', '佳', '下狱', '担当', '人品', '医疗', '出狱', '淫乐', '产生', '完全', '厌倦', '回到', '家时', '周围', '人群', '变化', '成见', '各种', '敌对', '重压', '原野', '口吻', '不想', '这所', '恰是', '之前', '政府', '机构', '头头', '抵达', '某种', '目标', '囚禁', '这件', '揭穿', '被捕', '属下', '匹敌', '宣称', '光复', '从来', '个性', '全体', '不理', '一旁', '叫喊']</t>
         </is>
       </c>
     </row>
@@ -6109,15 +6204,11 @@
           <t>Scent of a Woman</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D94" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -6156,6 +6247,11 @@
 史法兰在学校礼堂激昂演说，挽救了查理的前途，讽刺了学校的伪善。二人在互相鼓舞中得到重生。</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>['查理', '克里斯', '唐纳', '广泛', '中学生', '见证', '一件', '开玩笑', '不想', '出卖', '同伴', '濒临', '一起', '坚苦', '选择题', '坦率', '学宫', '勒退', '而史', '法兰', '阿尔', '帕西诺', '复员', '军官', '不测', '失明', '人生', '极点', '光彩', '滑落', '谷底', '两人', '交加', '命运', '波折', '徐徐', '了了', '希图', '完结', '失却', '事理', '生存', '伴随', '尽兴', '享受', '临了', '一回', '出行', '甘旨', '佳肴', '光鲜', '汽车', '渺小', '街道', '奢华', '套房', '跟从', '不懂', '佳', '袅袅', '香水味', '一段', '优美', '性感', '探戈', '极乐', '放肆', '对准', '头颅', '力竭声嘶', '劝戒', '变化', '晨曦', '慢慢', '白叟', '心中', '从头', '升空', '二人', '情深', '父子', '会堂', '康慨', '演说', '抢救', '前程', '奚落', '伪善', '互相', '煽惑', '取得', '更生']</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6167,15 +6263,11 @@
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
+      <c r="D95" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.6</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -6210,6 +6302,11 @@
       <c r="L95" t="inlineStr">
         <is>
           <t>南宋是一个人妖难分的时期，法海和尚（赵文卓饰）到处收服妖精，也扰乱了在西湖底修炼的白青二蛇。青（张曼玉饰）曾获白（王祖贤饰）相救，二者便以姐妹相称。姐妹俩受惑佯装成人生活在民间，白更嫁于老实书生许仙，青也同时看上了许仙，便常常以媚态勾引许仙，无奈许仙只深爱白一个。白开设了药店，以为可以自此过上安定的生活，可许仙却受不了青的百般挑逗，更发现了青白二蛇的真实身份，可他却不舍得离开家中的天姿国色。法海得知了青白二蛇的下落，更抓走了许仙。原来白为了爱情放弃修成正果，更怀有了身孕。为了救回丈夫，二蛇与法海展开了搏斗……</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>['南宋', '人妖', '难分', '时刻', '法海和尚', '赵文卓', '到处', '收服', '妖精', '侵扰', '西湖', '修炼', '白青二蛇', '张曼玉', '获白', '王祖贤饰', '相救', '二者', '姐妹', '很是', '姐妹俩', '受惑', '佯装', '成人', '生存', '民间', '安分', '书生', '许仙', '看上', '一再', '媚态', '劝诱', '无奈', '深爱', '开设', '药店', '以为', '以后', '安全', '受不了', '各式', '挑衅', '发掘', '青白', '二蛇', '的确', '身份', '舍得', '摆脱', '家中', '仙姿玉色', '法海', '得悉', '下落', '抓走', '从来', '恋爱', '吐弃', '修成', '正果', '怀有', '身孕', '救回', '丈夫', '伸开', '奋斗']</t>
         </is>
       </c>
     </row>
@@ -6227,15 +6324,11 @@
           <t>Home Alone</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
+      <c r="D96" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8.4</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6272,6 +6365,11 @@
         <is>
           <t>一年一度的圣诞节又到了。全家忙着外出欢度圣诞假期，不料忙中出错，将家里最小的成员——8岁的凯文（麦考利•卡尔金MacaulayCulkin　饰）留在了家里。爸爸妈妈急坏了，可此时他们已经身在外地，一时亦无可奈何。倒是凯文乐坏了，难得一个人在家，凯文将家里布置成了“游乐场”。
 两个刚出狱的窃贼将目光瞄向了凯文家。当他们鬼鬼祟祟的踏入凯文家时，凯文凭借自己的醒目和家里的“游乐场机关”，和两个笨贼玩起了“游戏”，笑料百出。凯文最后能否这场“游戏”的胜利？</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>['一年一度', '圣诞节', '全家', '出门', '欢度', '圣诞', '假期', '不意', '忙中出错', '家里', '最小', '成员', '凯文', '麦考利', '卡尔', '留在', '爸爸妈妈', '急坏', '此时', '一经', '身在', '外地', '一时', '万不得已', '乐坏了', '可贵', '在家', '安排', '游乐场', '两个', '刚出狱', '小偷', '目光', '瞄向', '蹑手蹑脚', '踏入', '家时', '注目', '坎阱', '笨贼', '玩起', '嬉戏', '笑料', '百出', '临了', '能否', '这场', '得胜']</t>
         </is>
       </c>
     </row>
@@ -6289,15 +6387,11 @@
           <t>One Flew Over the Cuckoo's Nest</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D97" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9.1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -6332,6 +6426,11 @@
       <c r="L97" t="inlineStr">
         <is>
           <t>麦克墨菲（杰克·尼科尔森JackNicholson饰）为了逃避监狱里的强制劳动，装作精神异常，被送进了精神病院，他的到来，给死气沉沉的精神病院带来了剧烈的冲击。麦克要求看棒球比赛的电视转播，挑战了医院严格的管理制度，受到护士长拉契特（路易丝·弗莱彻LouiseFletcher饰）的百般阻挠；麦克带领病人出海捕鱼，振奋了他们的精神，却让院方头痛不已。院方为了惩处麦克胆大妄为、屡犯院规，决定将他永远留在疯人院。生性自由的麦克再也无法忍受疯人院的生活，他联合病友，高大的印第安人“酋长”，开始自己的计划：飞越疯人院。本片获1975年第48届奥斯卡最佳影片，最佳男、女主角，最佳导演和最佳改编剧本五项大奖。主人公“不自由，毋宁死”的精神在当今社会仍有很大的现实意义。</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>['麦克', '墨菲', '杰克', '尼科尔森', '躲避', '监牢', '压迫', '作事', '假装', '精神异常', '精神病院', '到来', '半死不活', '带来', '刚烈', '冲击', '哀求', '棒球', '比赛', '电视转播', '寻事', '医院', '严峻', '管理制度', '受到', '护士长', '拉契特', '路易丝', '弗莱彻', '东拦西阻', '元首', '病人', '出海捕鱼', '抖擞', '灵魂', '院方', '头痛', '不已', '处罚', '为所欲为', '再犯', '院规', '决定', '恒久', '留在', '疯人院', '生性', '自在', '再也', '无法忍受', '生存', '合伙', '病友', '壮伟', '印第安人', '酋长', '安排', '飞越', '本片', '奥斯卡', '最佳影片', '最佳', '女主角', '导演', '改编', '剧本', '五项', '大奖', '主人公', '毋宁死', '当今社会', '很大', '现实意义']</t>
         </is>
       </c>
     </row>
@@ -6349,15 +6448,11 @@
           <t>ハウルの動く城</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D98" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -6393,6 +6488,11 @@
         <is>
           <t>继母因无力负担生活，将苏菲和她的两个妹妹都送到了制帽店去当学徒。两个妹妹很快先后就离开了制帽店去追寻各自的梦想，只有苏菲坚持了下来。一天，小镇旁边来了一座移动堡垒，传说堡垒的主人哈尔专吸取年青姑娘的灵魂，所以小镇的姑娘都不敢靠近。
 一个恶毒的巫婆为了报复苏菲与哈尔见面，用巫术把她变成了一个80岁的老太婆，而且苏菲还不能对别人说出自己身中的巫术。无奈，苏菲决定独自一人逃离小镇。天黑了，虚弱的苏菲没走多远，来到了移动城堡。心想自己已经是老太婆了，苏菲壮着胆子走进了城堡。不想，遇到了和她遭遇相同的火焰魔。两人约定彼此帮助对方打破各自的咒语……</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>['继母', '无力', '职掌', '生存', '苏菲', '两个', '妹妹', '送到', '制帽', '店去', '当学徒', '很快', '先后', '摆脱', '寻找', '妄想', '僵持', '下来', '小镇', '傍边', '挪动', '城堡', '传奇', '主人', '哈尔', '吮吸', '年轻', '女士', '心魄', '不敢', '围聚', '凶险', '巫婆', '冲击', '会面', '巫术', '变成', '老太婆', '不能', '他人', '说出', '身中', '无奈', '决定', '独自一人', '逃离', '入夜', '薄弱', '没走', '多远', '到达', '心想', '一经', '壮着', '胆子', '走进', '不想', '碰到', '不异', '火焰', '两人', '商定', '匡助', '对方', '打垮', '咒语']</t>
         </is>
       </c>
     </row>
@@ -6406,15 +6506,11 @@
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
+      <c r="D99" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.6</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -6451,6 +6547,11 @@
         <is>
           <t>杜拉拉（徐静蕾饰）是个初入职场的小白领，由于前任老板总是对她性骚扰，所以她决定跳槽，进入了著名跨国企业DB。DB的销售部金牌经理王伟（黄立行饰）与HR副总监玫瑰（莫文蔚饰）是一对地下情人，但是由于两人的工作压力都很大，以至于谁也无暇顾及家庭，双方大方分手。杜拉拉刚来DB，遇到了互相斗法的伊娃（李艾饰）和海伦（吴佩慈饰）。因为一次巧合，在电梯里邂逅了患有幽闭恐惧症的王伟，两人从此熟识。因为总公司高层要来中国分公司视察，因此中国区总经理和HR主管商量要重新装修公司。然而玫瑰却在此时患病需要动手术，其他人也避之不及，唯有初出茅庐的杜拉拉勇挑重担，并以其坚强不屈完成了这个重大的任务，受到了上司的赏识。而且，公司还在泰国举办了庆祝派对，期间杜拉拉与王伟擦出了爱情的火花，但是这段办公室恋情却遭遇了重重的阻力……
 本片是徐静蕾的第四部导演作品，根据李可同名畅销小说改编。</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>['拉拉', '徐静蕾', '初入', '职场', '白领', '前任', '店主', '总是', '性骚扰', '决定', '跳槽', '加入', '盛名', '跨国企业', '销售部', '金牌', '司理', '王伟', '黄立行', '总监', '玫瑰', '莫文蔚', '一双', '地下', '恋人', '两人', '事业', '压力', '很大', '无暇顾及', '家庭', '两边', '大度', '仳离', '碰到', '互相', '斗法', '伊娃', '李艾饰', '海伦', '吴佩慈饰', '一次', '刚巧', '电梯', '相逢', '患有', '幽闭', '恐惧症', '今后', '熟悉', '总公司', '高层', '中国', '分公司', '参观', '中国区', '总经理', '主宰', '切磋', '从头', '装修', '公司', '此时', '得病', '需求', '动手术', '其他人', '不及', '只有', '乳臭未干', '勇挑重担', '刚直不阿', '告竣', '巨大', '义务', '受到', '上司', '观赏', '泰国', '举办', '庆祝', '派对', '时候', '恋爱', '火花', '办公室', '恋情', '重重的', '阻力', '本片', '第四部', '导演', '作品', '李可', '同名', '畅销小说', '改编']</t>
         </is>
       </c>
     </row>
@@ -6468,15 +6569,11 @@
           <t>3 Idiots</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D100" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -6512,6 +6609,11 @@
         <is>
           <t>本片根据印度畅销书作家奇坦·巴哈特（ChetanBhagat）的处女作小说《五点人》（FivePointSomeone）改编而成。法兰（马德哈万RMadhavan饰）、拉杜（沙曼·乔希SharmanJoshi饰）与兰乔（阿米尔·汗AamirKhan饰）是皇家工程学院的学生，三人共居一室，结为好友。在以严格著称的学院里，兰乔是个非常与众不同的学生，他不死记硬背，甚至还公然顶撞校长“病毒”（波曼·伊拉尼BomanIrani饰），质疑他的教学方法。他不仅鼓动法兰与拉杜去勇敢追寻理想，还劝说校长的二女儿碧雅（卡琳娜·卡普KareenaKapoor饰）离开满眼铜臭的未婚夫。兰乔的特立独行引起了模范学生“消音器”（奥米·维嘉OmiVaidya饰）的不满，他约定十年后再与兰乔一决高下，看哪种生活方式更能取得成功。
 本片获孟买电影博览奖最佳影片、最佳导演、最佳配角（波曼·伊拉尼）、最佳剧本等六项大奖，并获国际印度电影协会最佳影片、最佳导演、最佳剧情、最佳摄影等十六项大奖。</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['本片', '印度', '畅销书', '作家', '奇坦', '巴哈', '处女作', '小说', '五点', '改编', '而成', '法兰', '马德哈万', '拉杜', '沙曼', '乔希', '与兰乔', '阿米尔', '皇家', '工程学院', '学徒', '三人共居', '一室', '结为', '好友', '严峻', '著称', '学院', '兰乔', '异常', '不同凡响', '死记硬背', '公开', '顶嘴', '校长', '病毒', '波曼', '拉尼', '怀疑', '教学方法', '带动', '杜去', '勇敢', '寻找', '欲望', '劝告', '二女儿', '碧雅', '琳娜', '卡普', '摆脱', '满眼', '铜臭', '未婚夫', '特立独行', '导致', '圭表', '消音器', '奥米', '维嘉', '不悦', '商定', '十年', '一决', '上下', '哪种', '生存', '体例', '更能', '取得成功', '孟买', '影戏', '博览', '最佳影片', '最佳', '导演', '副角', '剧本', '六项', '大奖', '国外', '电影协会', '剧情', '拍照', '十六']</t>
         </is>
       </c>
     </row>
@@ -6529,15 +6631,11 @@
           <t>不能說的·祕密</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
+      <c r="D101" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E101" t="n">
+        <v>8.1</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6572,6 +6670,11 @@
       <c r="L101" t="inlineStr">
         <is>
           <t>叶湘伦（周杰伦饰）是淡江艺术高中的一名插班生，父亲（黄秋生饰）是该校的一名教师。这天同学晴依（曾恺玹饰）带他参观学校，接着他独自来到了学校的旧琴房，本身弹得一首好曲的他被某处传来的一首钢琴曲吸引住了。他来到其中一间旧琴房，遇到了路小雨（桂纶镁饰），纯纯的爱情故事由此发生了。一直以来，叶湘伦都觉得小雨充满了神秘，却无法进一步了解她。叶湘伦约小雨到琴房见面，叶湘伦以为晴依是小雨，跟晴依接吻时被小雨看到，自此之后叶湘伦就没有再看到小雨。叶湘伦到处寻找小雨，发现了那个小雨所说“不能说的秘密”的全部真相。</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>['叶湘伦', '周杰伦', '淡江', '艺术', '高中', '一名', '插班生', '父亲', '黄秋生', '该校', '先生', '这天', '同学', '晴依', '曾恺', '参观', '学宫', '单独', '到达', '琴房', '本身', '弹得', '一首', '好曲', '某处', '传来', '钢琴曲', '吸引住', '一间', '碰到', '小雨', '桂纶', '纯纯', '爱情故事', '由此', '产生', '从此', '感觉', '充沛', '机密', '无法', '进一步', '了然', '叶湘伦约', '会面', '以为', '晴依是', '接吻时', '看到', '以后', '之后', '没有', '到处', '寻找', '发掘', '所说', '不能', '机要', '全数', '底细']</t>
         </is>
       </c>
     </row>
@@ -6585,15 +6688,11 @@
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+      <c r="D102" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.7</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -6629,6 +6728,11 @@
         <is>
           <t>蚊子（赵又廷饰）17岁那年搬到艋舺，因为一根鸡腿踏入了黑道，认识了和尚（阮经天饰）、志龙、阿伯还有白猴四个好兄弟，五人结为太子帮。太子帮秉持只识意气，不问意义的精神，凭借志龙的父亲Geta（马如龙饰）的黑道地位在学校呼风唤雨。踏入黑道就意味着要经历腥风血雨，然而和尚作为众人的守护神总能帮他们化解危机。艋舺传统的黑道秩序遭受着现代文明的威胁，外省人灰狼（钮承泽饰）要求和艋舺的老大们合作遭到拒绝。此时，和尚由于得知父辈们之间的事情对Geta心怀不满，加之文谦的怂恿而卷入一场阴谋。艋舺局势暗潮汹涌、杀机四伏，五兄弟在黑道与友情的决择中，演绎了一段关于青春的悲情故事。
 导演钮承泽称《艋舺》是“生猛又华丽的青春动作片”。本片于2010年春节档在台湾上映，首周票房达6000万新台币，刷新了台湾本土电影的首周票房纪录。</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>['蚊子', '赵又廷饰', '那年', '搬到', '一根', '鸡腿', '踏入', '黑道', '理解', '僧人', '阮经天', '志龙', '阿伯', '白猴', '四个', '伯仲', '五人', '结为', '太子', '秉持', '只识', '意气', '事理', '灵魂', '父亲', '马如龙', '位子', '学宫', '兴风作浪', '意味着', '履历', '白色恐怖', '专家', '守护神', '总能', '化解', '危境', '传统', '治安', '蒙受', '现代文明', '劫持', '外省人', '灰狼', '钮承泽饰', '哀求', '大哥', '协作', '遭到', '圮绝', '此时', '得悉', '父辈', '之间', '事务', '心怀不满', '文谦', '姑息', '卷入', '妄想', '大局', '暗潮汹涌', '杀机', '四伏', '交谊', '决择', '演绎', '一段', '芳华', '悲情', '故事', '导演', '钮承泽称', '生猛', '丽都', '动作片', '本片', '春节', '台湾', '上映', '首周', '票房', '新台币', '刷新', '原土', '影戏', '纪录']</t>
         </is>
       </c>
     </row>
@@ -6642,15 +6746,11 @@
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+      <c r="D103" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.7</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -6686,6 +6786,11 @@
         <is>
           <t>想演戏的孙纳（周迅饰）与想导戏的林见东（金城武饰）初遇见时，两人都正处于生活与事业的低谷，在相互鼓励和扶携中，他们渐渐有了共同的可以看见希望的未来，然而孙纳更想把现在的可能抓到手，狠心与林见东分了手，跟了可以给她戏的导演聂文（张学友饰），成为人人艳羡的大明星。
 天意弄人，十年后孙纳与也做了演员的林见东因为一部合拍戏又重遇。虽努力说服自己忘记过去，却欺骗不了自己的心，孙纳陷入两难中。而更戏剧的是，孙纳、林见东和聂文要同演一出剧情与他们之间情恨纠葛惊人相似的戏。</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['演戏', '孙纳', '迅饰', '导戏', '林见', '金城武', '碰见', '两人', '处于', '生存', '事业', '低谷', '彼此', '鼓动', '慢慢', '共同', '望见', '但愿', '改日', '如今', '也许', '到手', '狠心', '东分', '导演', '聂文', '张学友', '成为', '专家', '羡慕', '明星', '天意', '十年', '伶人', '一部', '合拍', '重遇', '全力', '压服', '忘怀', '已往', '愚弄', '不了', '堕入', '两难', '戏剧', '聂文要', '同演', '一出', '剧情', '之间', '情恨', '瓜葛', '惊人', '犹如']</t>
         </is>
       </c>
     </row>
@@ -6703,15 +6808,11 @@
           <t>花とアリス</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+      <c r="D104" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6747,6 +6848,11 @@
         <is>
           <t>自小一起长大的少女花（铃木杏）与艾丽斯（苍井优）是一对亲密好友，但两人性格迥异，艾丽斯活泼好动，见爱就追，花则天性害羞，不敢同喜欢的男生讲话。在每天陪伴艾丽斯尾随其一见钟情的高校男生时，花也偷偷恋上了经常与该男生结伴同行的宫本。
 花与艾丽斯双双考进宫本所念书的高校，花也设法成为了宫本所在的相声社团的社员。某次意外令宫本患上短暂性的“记忆丧失”，花趁机编出其是宫本曾开口示爱的对象，两人谈起伪恋爱。眼看谎言越撒越多接近无法收场，花情急之中把艾丽斯拉了进来，不想她自己成了“电灯泡”。</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['自小', '一块', '长大', '仙女', '铃木杏', '艾丽斯', '苍井优', '一双', '亲切', '好友', '两人', '性情', '差异', '天真', '好动', '花则', '个性', '含羞', '不敢', '喜好', '男生', '言语', '每天', '伴随', '尾随', '一拍即合', '高校', '偷偷', '恋上', '每每', '结伴同行', '宫本', '双双', '进宫', '本所', '念书', '想法', '成为', '住址', '相声', '社团', '社员', '某次', '不测', '患上', '短暂性', '印象', '丢失', '趁便', '编出', '启齿', '示爱', '器材', '谈起', '恋爱', '眼看', '谎狗', '越撒越', '挨近', '无法', '完结', '情急', '之中', '进入', '不想', '电灯泡']</t>
         </is>
       </c>
     </row>
@@ -6760,15 +6866,11 @@
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
+      <c r="D105" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.4</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -6803,6 +6905,11 @@
       <c r="L105" t="inlineStr">
         <is>
           <t>东汉末年，汉室幼主难当大局，朝廷中曹操（张丰毅饰）独断专行，挟天子以令诸侯，大夫孔融（王庆祥饰）誓死直谏，结果落得给曹兵祭旗。原来曹操决心已定，欲剿灭刘备（尤勇饰）、孙权（张震饰）等江南反贼，一统天下。长坂坡一战后，刘备在军师诸葛亮（金城武饰）辅佐之下，率结义弟兄关羽、张飞（臧金生饰）、赵云（胡军饰）等，带领难民且战且退，最后只得求助于江东孙权。对于抗曹之事，孙权亦正犹豫不决。但大都督周瑜（梁朝伟饰）与其妹孙尚香均力挺其出战，眼看大兵压境，孙刘联盟方现雏形。诸葛亮观周瑜严明治军，旗下大将甘兴（中村狮童饰）身先士卒，颇感欣慰。此刻突然传来军中箭弩严重缺乏，孔明不顾鲁肃（侯勇饰）好心劝阻，甘愿立下军令状，谋求箭弩……</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['东汉', '晚年', '汉室', '幼主', '难当', '事势', '朝廷', '曹操', '张丰毅', '乾纲独断', '挟天子以令天下', '医师', '孔融', '王庆祥饰', '誓死', '直谏', '落得', '曹兵', '祭旗', '从来', '信念', '剿灭', '刘备', '尤勇饰', '孙权', '张震饰', '江南', '反贼', '一统天下', '长坂坡', '战后', '军师', '诸葛亮', '金城武', '协助', '之下', '结义', '弟兄', '关羽', '张飞', '臧金', '生饰', '赵云', '胡军饰', '元首', '遗民', '且战且退', '临了', '只得', '求助于', '江东', '曹之事', '三心二意', '都督', '周瑜', '梁朝伟', '妹孙尚', '香均力', '出战', '眼看', '大兵', '压境', '孙刘', '同盟', '方现', '雏形', '严明', '治军', '旗下', '大将', '甘兴', '中村', '狮童饰', '一马当先', '颇感', '安慰', '今朝', '倏地', '传来', '军中', '严峻', '单调', '孔明', '不顾', '鲁肃', '侯勇饰', '善心', '劝戒', '情愿', '立下', '军令状', '寻求']</t>
         </is>
       </c>
     </row>
@@ -6820,15 +6927,11 @@
           <t>春光乍洩</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D106" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6864,6 +6967,11 @@
         <is>
           <t>黎耀辉（梁朝伟）与何宝荣（张国荣）是一对同性恋人，为了有新的开始，他们怀着美丽的梦想（去看南美洲大瀑布）离开香港来到阿根廷，却在布宜诺斯艾利斯迷了路。黎耀辉想安下心来过日子，无奈何宝荣于夜夜笙歌中放纵着自己的生命，以期找寻更多的刺激，只当黎耀辉是他受伤后的港湾，两人分歧、争吵越来越多，心的距离越来越远。
 黎耀辉明白过去的日子不可能再复返时，决定离开何宝荣，而正是在他离开后，绝望的意味（对黎耀辉的爱）才在何宝荣的脑海中完整地浮现。</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['黎耀辉', '梁朝伟', '何宝荣', '张国荣', '一双', '同性恋', '怀着', '倩丽', '妄想', '南美洲', '瀑布', '摆脱', '香港', '到达', '阿根廷', '布宜诺斯艾利斯', '迷了路', '想安下', '心来', '过日子', '无奈何', '宝荣于', '夜夜', '歌乐', '放任', '人命', '以期', '寻找', '刺激', '只当', '受伤', '港湾', '两人', '不同', '不和', '越来越', '距离', '明显', '已往', '日子', '也许', '复返', '决定', '恰是', '扫兴', '意味', '对黎耀辉', '脑海中', '完好', '出现']</t>
         </is>
       </c>
     </row>
@@ -6881,15 +6989,11 @@
           <t>Lost in Translation</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="D107" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.8</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6925,6 +7029,11 @@
       <c r="L107" t="inlineStr">
         <is>
           <t>一切源自于无处不在的寂寞。当寂寞蔓延到头顶无法呼吸，过气电视明星鲍勃·哈里斯(比尔·默瑞BillMurray饰)，已为人妻的夏洛特(斯嘉丽·约翰逊ScarlettJohansson饰)，年轻貌美的电影女演员凯莉(安娜·法瑞丝AnnaFaris饰)在机缘巧合下在东京相遇。在这个不是故乡的陌生城市里，他们在豪华旅馆邂逅，不约而同的失眠，互相陪伴，生活一方面仿佛变的缤纷起来，另一面却逐渐走向迷失，过气明星和为人妻的夏洛特能迎接他们二人思想和关系变化的挑战吗？冲破迷失或者身陷其中，让我们一起找寻答案。</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['源自', '无处不在', '伶仃', '蔓延到', '头顶', '无法', '呼吸', '电视', '明星', '鲍勃', '哈里斯', '比尔', '默瑞', '已为', '人妻', '夏洛特', '斯嘉丽', '约翰逊', '年轻貌美', '影戏', '女演员', '凯莉', '安娜', '法瑞丝', '机缘巧合', '东京', '相逢', '不是', '乡里', '不懂', '城市', '奢华', '客栈', '不期而遇', '失眠', '互相', '伴随', '生存', '仿佛', '缤纷', '起来', '另一面', '逐步', '走向', '丢失', '应接', '二人', '头脑', '关系', '发展', '寻事', '争执', '身陷', '一块', '寻找', '答案']</t>
         </is>
       </c>
     </row>
@@ -6942,15 +7051,11 @@
           <t>Lock, Stock and Two Smoking Barrels</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D108" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6989,6 +7094,11 @@
 在无知与莽撞中置身漩涡的他们能侥幸脱身么？笑料迭出的偶发事件里，穿插着小人物与大人物的辛酸幽默。</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['艾迪', '尼克', '莫伦', '头脑', '快速', '玩牌', '能手', '三个', '好友', '扶助', '巨资', '加入', '黑社会', '高额', '赌局', '不想', '落入', '圈套', '欠下', '赌债', '还清', '同伴', '搜索枯肠', '最后', '推算', '一群', '毒贩', '身上', '侵掠', '添置', '两杆', '旧式', '烟枪', '这群', '不安分', '惦念着', '毒品', '供应商', '同一天', '奉行', '费尽周折', '井然有序', '钱款', '拿到', '手后', '侥幸', '不劳而获', '明晰', '看似', '扼要', '抢劫案', '反面', '凶暴', '脚色', '列入', '手里', '规避', '不少', '故事', '愚蠢', '冒昧', '置身', '旋涡', '脱身', '笑料', '迭出', '偶发事件', '穿插着', '小人物', '大人物', '悲哀', '幽默']</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7004,15 +7114,11 @@
           <t>Ratatouille</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
+      <c r="D109" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7053,6 +7159,11 @@
 古斯特餐厅的成功，引起了苛刻的美食评论家科隆的注意，准备一尝林奎尼的手艺，重新为餐厅评定星级；而不甘失败的前大厨，蠢蠢欲动，想要找到林奎尼一夜成名的秘密。失去了雷米，林奎尼该如何面对这些问题……</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['小老鼠', '雷米', '嗅觉', '方面', '有着', '不相上下', '先天', '不想', '垃圾堆', '为伴', '生存', '心怀', '成为', '五星', '大厨', '妄想', '偶尔', '契机', '理解', '古斯特', '餐厅', '学徒', '林奎尼', '不幸', '生性', '含羞', '厨艺', '更是', '没有', '遭到', '扫除', '即将', '罢免', '这一人', '一鼠', '结成', '奇快', '同盟', '付出', '极富', '创造力', '大脑', '掌握', '前台', '献技', '匡助', '厨师', '获取', '美女', '共事', '恋爱', '失败', '合法', '继承人', '突如', '起来', '告捷', '不知所厝', '挣脱', '傀儡', '身份', '赶出', '厨房', '导致', '刻毒', '美食', '评论家', '科隆', '属意', '企图', '一尝林奎尼', '功夫', '从头', '评定', '星级', '不甘', '凋落', '摩拳擦掌', '想要', '找到', '一夜', '成名', '机要', '失却', '林奎尼该', '面临', '问题']</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7064,15 +7175,11 @@
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
+      <c r="D110" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.199999999999999</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7107,6 +7214,11 @@
       <c r="L110" t="inlineStr">
         <is>
           <t>史提芬周（周星驰饰）在饮食界是享誉盛名的食神，但一直骄傲自大，惟利是图。被身边得力助手陷害，一夜间一无所有。他在庙街认识了早已对他倾心的大姐大火鸡（莫文蔚饰）及一众老大，靠着史提芬周的商业头脑，他们决定推出“爆浆癞尿牛丸”，史提芬周重出江湖的道路也越来越顺利。为了重新夺得食神的位置，他回到大陆寻找“中国厨艺学院”受训。火鸡一路跟着他想对他表白，史提芬被对手追杀，火鸡不顾生命为他档了一枪，生死未卜。学成归来的史提芬如期到达食神的比赛场地，没想到评判却被对手收买了……</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['提芬', '周星驰', '饮食', '享誉', '盛名', '食神', '狂妄自大', '唯利是图', '身边', '得力助手', '构陷', '一夜间', '一无所得', '庙街', '理解', '早已', '倾心', '大姐大', '火鸡', '莫文蔚', '一众', '大哥', '靠着', '商业', '头脑', '决定', '推出', '爆浆', '癞尿牛', '重出江湖', '途径', '越来越', '成功', '重新夺得', '位子', '回到', '内地', '寻找', '中国', '厨艺', '学院', '受训', '一同', '跟着', '表明', '对手', '追杀', '不顾', '人命', '一枪', '生死未卜', '学成归来', '准时', '到达', '比赛场地', '没想到', '评价', '拉拢']</t>
         </is>
       </c>
     </row>
@@ -7124,15 +7236,11 @@
           <t>The Sound of Music</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D111" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7168,6 +7276,11 @@
         <is>
           <t>玛利亚（朱丽·安德鲁斯饰）是一个年轻活泼的修女，喜欢在大自然下高声歌唱，所以她常常忘记了修道院里的规矩。院长认为玛利亚并不属于规矩严格的修道院。院长与众嬷嬷商量后，决定安排玛利亚到一位名叫特拉普（克里斯托弗·普卢默饰）上校家当家庭教师。
 上校的妻子去世多年，留下7个孩子，他要求对孩子严格管教。他告诉玛利亚在他家的家庭教师都做不长久，都是因为孩子的恶作剧。玛利亚果然也遭到了恶作剧，可是这位善良的老师并没有告诉他们的父亲，而是像个母亲一样照顾孩子，很快跟孩子打成一片。上校也渐渐在玛利亚的引导下改变了对孩子们的态度。上校与玛利亚之间发生了感情，他们完婚后回到了已被纳粹占领的奥地利，上校并不想为纳粹办事，一家人准备逃跑……</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>['玛利亚', '朱丽', '安德鲁斯', '年轻', '天真', '修女', '喜好', '大自然', '大声', '歌咏', '一再', '忘怀', '修道院', '礼貌', '院长', '觉得', '属于', '严峻', '嬷嬷', '切磋', '决定', '安排', '一位', '名叫', '特拉普', '克里斯托弗', '普卢默饰', '上校', '家产', '家庭教师', '夫妻', '丧生', '多年', '留下', '儿童', '哀求', '管教', '叮嘱', '他家', '久远', '是因为', '开玩笑', '遭到', '这位', '和善', '教练', '没有', '父亲', '母亲', '体贴', '很快', '打得火热', '慢慢', '向导', '变化', '作风', '之间', '产生', '情愫', '匹配', '回到', '纳粹', '占据', '奥地利', '不想', '做事', '一家人', '企图', '逃窜']</t>
         </is>
       </c>
     </row>
@@ -7185,15 +7298,11 @@
           <t>Alice in Wonderland</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
+      <c r="D112" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.4</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7229,6 +7338,11 @@
         <is>
           <t>爱丽斯（米娅·华希科沃斯卡MiaWasikowska饰）始终被同一个梦魇所困扰，直到她20岁时参加的一场聚会。本认为是一场无聊至极的聚会而已，没想到却是精心策划的求婚仪式。面对养尊处优的公子哥哈米什突如其来的求婚，毫无准备的爱丽斯着实被吓了一跳。爱丽斯被一只身马甲的兔子所吸引，在追赶过程中爱丽斯掉入了一个深不见底的树洞里，来到了一个如同仙境般不可思议的“地下世界”。此时，生活在地下世界的善良人们似乎都在盼望着她的到来，可是她却认为这是一场梦，只想快点醒过来回到现实世界。然而，在认识疯疯癫癫的疯帽子（约翰尼·德普JohnnyDepp饰）之后，爱丽斯才知道地下世界正处于“红桃皇后”（海伦娜·伯翰·卡特HelenaBonhamCarter饰）的血腥统治之下，按照“皇历”的预言，只有她才能帮助“白色皇后”（安妮·海瑟薇AnneHathaway饰）战胜“红桃皇后”，让地下世界重归和睦与安宁……
 这部迪士尼的3D立体电影由曾带给人们无数惊喜的奇幻大师蒂姆·波顿（TimBurton）执导，其灵感来自于英国著名童话大师刘易斯·卡洛尔（LewisCarroll）的《爱丽斯漫游仙境》和《爱丽丝镜中奇遇记》。</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>['爱丽斯', '米娅', '华希', '科沃', '斯卡', '始终', '同一个', '梦魇', '困扰', '直到', '加入', '约会', '觉得', '乏味', '十分', '没想到', '却是', '精心策划', '求婚', '仪式', '面临', '仰人鼻息', '公子哥', '哈米', '出乎意外', '毫无准备', '委果', '吓了一跳', '一只', '无袖', '兔子', '吸引', '追赶', '经过', '掉入', '深不见底', '树洞', '到达', '坊镳', '仙境', '不可思议', '地下', '世界', '此时', '生存', '和善', '人们', '仿佛', '盼望着', '到来', '这是', '只想', '快点', '醒过来', '回到', '实际', '理解', '疯疯癫癫', '帽子', '约翰尼', '德普', '之后', '明晰', '处于', '红桃', '皇后', '海伦娜', '伯翰', '卡特', '血腥', '管理', '之下', '皇历', '预言', '才力', '匡助', '白色', '安妮', '海瑟薇', '克服', '重归', '友好', '和平', '这部', '迪士尼', '立体电影', '带给', '多数', '惊喜', '奇幻', '大家', '蒂姆', '波顿', '执导', '灵感', '来自', '英国', '盛名', '童话', '刘易斯', '卡洛尔', '游历', '爱丽丝', '镜中', '奇遇记']</t>
         </is>
       </c>
     </row>
@@ -7246,15 +7360,11 @@
           <t>Sherlock Holmes</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
+      <c r="D113" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.7</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -7290,6 +7400,11 @@
         <is>
           <t>大侦探福尔摩斯（小罗伯特·唐尼RobertDownerJr.饰）即使在置人于死地之时也异常的逻辑清晰，然而办案时有条不紊的他在私底下的生活中简直就是个“怪胎”，至少在他的助手华生医生（裘德·洛JudeLaw饰）眼中他是这样一个人。他们亲手绳之以法的“黑暗巫师”布莱克大人（马克·斯特朗MarkStrong饰）在临死前说死亡即是开始，随后艾琳·艾德勒（瑞秋·麦克亚当斯RachelMcAdams饰）出现在他的身边要他帮忙找个失踪的人，而她身边有个影子般可怕人物。坊间传说黑暗巫师已经复活，他的墓地遭到破坏，而躺在棺材里的人另有其人。又到了大侦探福尔摩斯出马的时候了，然而调查过程从一开始就险象环生，助手华生医生在调查中更是险些丧命，福尔摩斯也陷入连串的迷团之中。
 本片根据著名同名漫画改编，作者莱昂纳尔·威格拉姆（LionelWigram）。2010年第82届奥斯卡最佳艺术指导、最佳配乐2项提名、第67届金球奖音乐/喜剧类最佳男主角RobertDowneyJr.</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>['侦察', '福尔摩斯', '罗伯特', '唐尼', '人于', '死地', '之时', '十分', '逻辑', '了了', '办案', '层序分明', '私底下', '生存', '的确', '怪胎', '至少', '佐理', '华生', '医师', '裘德', '眼中', '亲手', '依法从事', '暗中', '巫师', '布莱克', '大人', '马克', '斯特朗', '临死前', '仙逝', '随后', '艾琳', '德勒', '瑞秋', '麦克', '亚当斯', '产生', '身边', '找个', '失散', '有个', '影子', '可怕', '人物', '坊间', '传奇', '一经', '再造', '坟场', '遭到', '捣乱', '棺材', '另有其', '出马', '调查过程', '岌岌可危', '更是', '几乎', '丧命', '堕入', '连串', '迷团', '之中', '本片', '盛名', '同名', '漫画', '改编', '作家', '莱昂', '纳尔', '格拉姆', '奥斯卡', '最佳', '艺术', '向导', '配乐', '提名', '金球奖', '音乐', '喜剧类', '男主角']</t>
         </is>
       </c>
     </row>
@@ -7307,15 +7422,11 @@
           <t>The Matrix</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
+      <c r="D114" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.1</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -7351,6 +7462,11 @@
         <is>
           <t>不久的将来，网络黑客尼奥（基奴李维斯饰）对这个看似正常的现实世界产生了怀疑。他结识了黑客崔妮蒂（凯莉·安·摩丝饰），并见到了黑客组织的首领墨菲斯（劳伦斯·菲什伯恩饰）。墨菲斯告诉他，现实世界其实是由一个名叫“母体”的计算机人工智能系统控制，人们就像他们饲养的动物，没有自由和思想，而尼奥就是能够拯救人类的救世主。
 可是，救赎之路从来都不会一帆风顺，到底哪里才是真实的世界？如何才能打败那些超人一样的特勤？尼奥是不是人类的希望？这是黑客的帝国，程序和代码欢迎大家的到来。.</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>['不久', '他日', '搜集', '黑客', '尼奥', '基奴', '李维斯', '看似', '寻常', '实际', '世界', '产生', '可疑', '巩固', '崔妮蒂', '凯莉', '摩丝', '见到', '机构', '头头', '菲斯', '劳伦斯', '菲什', '伯恩', '叮嘱', '其实', '名叫', '母体', '计算机', '人工智能', '系统控制', '人们', '豢养', '动物', '没有', '自在', '头脑', '可能', '急救', '人类', '救世主', '救赎', '一直', '不会', '一帆风顺', '事实', '的确', '才力', '打倒', '神人', '特勤', '是不是', '但愿', '这是', '帝国', '次第', '代码', '接待', '各人', '到来']</t>
         </is>
       </c>
     </row>
@@ -7368,15 +7484,11 @@
           <t>寶貝計劃</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="D115" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -7412,6 +7524,11 @@
         <is>
           <t>故事围绕一个刚出生的宝宝开始。人字拖（成龙饰）虽有不凡的身手，可是终日沉迷赌博毫无人生目标，便与包租公（许冠文饰）、八达通（古天乐饰）一起盗窃，干着偷偷摸摸的犯罪事。城中女富豪（余安安饰）唯一的孙子出生后，包租公受不了金钱的诱惑，答应把宝宝偷给黑帮老大，以证明宝宝是否是自己死去的儿子与前女友的孩子。
 成功偷得孩子后，一连串发生的事情，使人字拖及八达通改变了自己的人生观念。人字拖开始关心家人，八达通也看到了自己老婆（蔡卓妍饰）的不易，开始重新做人。在包租公及黑势利的威胁下，他们还是要把偷来的BB交出来，到底又会发生些什么事，故事有会否大团圆结局呢？</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>['故事', '围绕', '刚出生', '宝宝', '人字拖', '成龙', '不凡', '技艺', '整天', '沉溺', '打赌', '毫无', '人生目标', '包租公', '许冠文', '八达通', '古天乐', '一块', '摸风', '干着', '偷偷摸摸', '犯科', '城中', '富人', '余安安', '唯一', '孙子', '出世', '受不了', '款项', '蛊惑', '甘愿', '黑帮', '大哥', '证实', '是否是', '故去', '儿子', '前女友', '儿童', '告捷', '偷得', '一连串', '产生', '事务', '变化', '人生', '见解', '亲切', '家人', '看到', '细君', '蔡卓妍', '不易', '重新做人', '势利', '劫持', '偷来', '出来', '事实', '有会否', '大团圆', '完结']</t>
         </is>
       </c>
     </row>
@@ -7429,15 +7546,11 @@
           <t>Dead Poets Society</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
+      <c r="D116" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -7476,6 +7589,11 @@
 基汀教授、基汀老师、基汀队长，他的教育宛若春风化雨，润物无声的留在每个人心里…</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>['尔顿', '准备', '学院', '沉着', '凝重', '教学风格', '升学率', '出名', '毕业班', '学徒', '欲望', '升入', '名校', '新学期', '文学', '教练', '约翰', '基汀', '罗宾', '威廉姆斯', '到来', '坊镳', '一阵', '春风', '一反', '传统', '严正', '刻板', '在校', '史楼', '倾听', '仙逝', '声气', '反思', '事理', '男生', '绿茵场', '宣读', '鼓动', '课桌', '视角', '俯瞰', '世界', '自在', '发散', '哲学', '头脑', '内心', '产生', '刚烈', '共识', '慢慢', '学会', '思念', '求索', '勇敢', '诘问', '人生', '行程', '背离', '门禁', '创建', '诗社', '山洞', '击节', '而歌', '教员', '队长', '教导', '似乎', '化雨春风', '润物无声', '留在', '每个']</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7491,15 +7609,11 @@
           <t>Mary and Max</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
+      <c r="D117" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -7535,6 +7649,11 @@
         <is>
           <t>1976年，8岁的玛丽·黛西·丁格尔（贝丝妮·惠特摩尔BethanyWhitmore配音）是澳大利亚墨尔本的一个小女孩，喜欢动画片“诺布利特”、甜炼乳和巧克力。玛丽的妈妈是个酒鬼，而在茶叶包装厂工作的父亲平日只喜欢制作鸟标本。孤独的玛丽没有朋友，某一天心血来潮给美国纽约市的马克思·杰瑞·霍罗威茨（菲利普·塞默·霍夫曼PhilipSeymourHoffman配音）写了一封信询问美国小孩从哪里来，并附上一根樱桃巧克力棒。44岁的马克思患有自闭症及肥胖，碰巧也喜欢看“诺布利特”动画片及吃巧克力。二人的笔友关系从1976年维持到1994年，期间各自经历了许多人生起伏，直到成年的玛丽（托妮·科莱特ToniCollette配音）终于来到纽约看望马克思……
 本片获2009年法国昂锡国际动画影展最佳动画长片奖，柏林国际电影节水晶熊奖及渥太华国际动画电影节最高奖。</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>['玛丽', '黛西', '丁格尔', '贝丝妮', '惠特', '摩尔', '配音', '澳大利亚', '墨尔本', '小女孩', '喜好', '动画片', '布利', '炼乳', '巧克力', '妈妈', '酒鬼', '茶叶', '包装厂', '事业', '父亲', '平常', '创造', '标本', '孤傲', '没有', '同伴', '心血来潮', '美国', '纽约市', '马克思', '杰瑞', '霍罗', '威茨', '菲利普', '塞默', '霍夫曼', '一封信', '盘问', '儿童', '附上', '一根', '樱桃', '患有', '自闭症', '强壮', '巧合', '二人', '笔友', '关系', '撑持', '时候', '履历', '人生', '升沉', '直到', '成年', '托妮', '莱特', '到底', '到达', '纽约', '拜望', '本片', '法国', '昂锡', '国外', '动画', '影展', '最佳', '长片', '柏林', '电影节', '水晶', '熊奖', '渥太华', '最高奖']</t>
         </is>
       </c>
     </row>
@@ -7552,15 +7671,11 @@
           <t>He's Just Not That Into You</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
+      <c r="D118" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.8</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -7596,6 +7711,11 @@
         <is>
           <t>GiGi(GinniferGoodwin饰)是个对爱情充满幻想的女孩儿，却在一次次约会中受挫。她的闺蜜Beth（JenniferAniston饰）和Janine（JenniferConnelly饰）不断鼓励GiGi在感情中振奋起来，却各自对爱情怀有遗憾。Beth与Neil（BenAffleck饰）同居七年，却一直未能等来期待的那枚婚戒。Janine的敏感让她与Ben（BradleyCooper饰）的婚姻陷入僵局，而Ben与歌手Anna（ScarlettJohansson饰）的婚外情更是给他们的婚姻雪上加霜。Anna一边拒绝拥趸Conor（KevinConnolly饰）的示好，一边热情似火的期待Ben离开Janine，可是Ben真的能离开Janine来到她的身边么？另一方面Anna的好友Mary（DrewBarrymore饰）在一个清晨和Conor面对面的不期而遇了。
 几个女孩儿带着爱情的梦想在城市中跌跌撞撞，而此时一直未遇真爱的GiGi在酒吧老板Alex（JustinLong饰）的口中听到了让所有女人心碎的话“Heisjustnotthatintoyou!”</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>['恋爱', '充沛', '妄图', '女孩儿', '一次次', '约会', '受挫', '闺蜜', '不息', '鼓动', '情愫', '振奋起来', '怀有', '可惜', '同居', '七年', '未能', '守候', '婚戒', '敏感', '婚姻', '陷入僵局', '歌手', '婚外情', '更是', '落井下石', '一壁', '圮绝', '示好', '激情', '似火', '摆脱', '果真', '到达', '身边', '好友', '凌晨', '面对面', '不期而会', '几个', '妄想', '城市', '磕磕绊绊', '此时', '未遇', '真爱', '酒吧', '店主', '口中', '听到', '全豹', '女人', '心碎']</t>
         </is>
       </c>
     </row>
